--- a/third assignment/karger.xlsx
+++ b/third assignment/karger.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davide/Sviluppo/Advanced Algorithm/third assignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Advanced Algorithm\AdvancedAlgorithms-assignments\third assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8719CE31-41D2-7C4A-98A4-AEC15B325CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14D0AD2-7650-4657-B539-687706F9109C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3480" yWindow="-21100" windowWidth="38400" windowHeight="21100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="karger" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>file</t>
   </si>
@@ -209,12 +225,36 @@
   </si>
   <si>
     <t>input_random_55_500</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>n^2*log^3(n)</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>choosen constant</t>
+  </si>
+  <si>
+    <t>n^2*log^3(n)*constant</t>
+  </si>
+  <si>
+    <t>Vertices</t>
+  </si>
+  <si>
+    <t>Media I</t>
+  </si>
+  <si>
+    <t>Time (ms)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -752,6 +792,1530 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>KARGER AND STEIN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Measured Time (ms)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>karger!$M$2:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>karger!$Q$2:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>8.6249999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50075000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.885999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.244500000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.16375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.117750000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>162.22049999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>279.47419999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>359.34966666666668</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>490.10725000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>647.27150000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>812.24324999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E271-4119-AF6E-6202054750FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>0.0001745*n^2*log^3(n)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>karger!$M$2:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>karger!$N$2:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.7399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15327494467426467</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1447365653717099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5217445204400701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6755091721393569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.34252528124258</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.796139332902101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>149.94921860566569</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>238.03101855341419</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350.97122026486437</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>490.47982295764695</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>658.09772083473229</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>855.23099253248449</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E271-4119-AF6E-6202054750FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1204925728"/>
+        <c:axId val="1204926544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1204925728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="510"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number of vertices</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1204926544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1204926544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1204925728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr u="none"/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Grafico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD96C35-0B6C-4975-B7C9-5693C91E75D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="result_prim"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="U2">
+            <v>10</v>
+          </cell>
+          <cell r="V2">
+            <v>3.9999999999999994E-2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="U3">
+            <v>20</v>
+          </cell>
+          <cell r="V3">
+            <v>4.4999999999999998E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="U4">
+            <v>40</v>
+          </cell>
+          <cell r="V4">
+            <v>8.5000000000000006E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="U5">
+            <v>80</v>
+          </cell>
+          <cell r="V5">
+            <v>0.16749999999999998</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="U6">
+            <v>100</v>
+          </cell>
+          <cell r="V6">
+            <v>0.215</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="U7">
+            <v>200</v>
+          </cell>
+          <cell r="V7">
+            <v>0.435</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="U8">
+            <v>400</v>
+          </cell>
+          <cell r="V8">
+            <v>0.89249999999999996</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="U9">
+            <v>800</v>
+          </cell>
+          <cell r="V9">
+            <v>1.7324999999999999</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="U10">
+            <v>1000</v>
+          </cell>
+          <cell r="V10">
+            <v>2.0449999999999999</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="U11">
+            <v>2000</v>
+          </cell>
+          <cell r="V11">
+            <v>4.3674999999999997</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="U12">
+            <v>4000</v>
+          </cell>
+          <cell r="V12">
+            <v>8.5574999999999992</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="U13">
+            <v>8000</v>
+          </cell>
+          <cell r="V13">
+            <v>16.434999999999999</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="U14">
+            <v>10000</v>
+          </cell>
+          <cell r="V14">
+            <v>18.8125</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="U15">
+            <v>20000</v>
+          </cell>
+          <cell r="V15">
+            <v>40.852499999999999</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="U16">
+            <v>40000</v>
+          </cell>
+          <cell r="V16">
+            <v>93.96</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="U17">
+            <v>80000</v>
+          </cell>
+          <cell r="V17">
+            <v>222.60250000000002</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="U18">
+            <v>100000</v>
+          </cell>
+          <cell r="V18">
+            <v>275.065</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="result_kruskal_union_find"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="V2">
+            <v>5.4999999999999993E-2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="V3">
+            <v>0.11250000000000002</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="V4">
+            <v>0.16500000000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="V5">
+            <v>0.21249999999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="V6">
+            <v>0.24</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="V7">
+            <v>0.35250000000000004</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="V8">
+            <v>0.59250000000000003</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="V9">
+            <v>1.1750000000000003</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="V10">
+            <v>1.345</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="V11">
+            <v>2.2050000000000001</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="V12">
+            <v>4.5724999999999998</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="V13">
+            <v>10.715</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="V14">
+            <v>20.9575</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="V15">
+            <v>40.482500000000002</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="V16">
+            <v>88.472500000000011</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="V17">
+            <v>194.03000000000003</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="V18">
+            <v>273.95500000000004</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
@@ -1048,25 +2612,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1088,8 +2655,35 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1111,8 +2705,40 @@
       <c r="G2">
         <v>11585</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <f>POWER(H2,2) * POWER(LOG10(H2),3)</f>
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <f>F2/I2</f>
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="K2">
+        <v>1.74E-4</v>
+      </c>
+      <c r="L2">
+        <f>I2*$K$2</f>
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <f>AVERAGEIF(H:H,M2,L:L)</f>
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <f>AVERAGEIF(H:H,P2,F:F)</f>
+        <v>8.6249999999999993E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1134,8 +2760,37 @@
       <c r="G3">
         <v>11797</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I57" si="0">POWER(H3,2) * POWER(LOG10(H3),3)</f>
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J57" si="1">F3/I3</f>
+        <v>8.5000000000000006E-4</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L57" si="2">I3*$K$2</f>
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N15" si="3">AVERAGEIF(H:H,M3,L:L)</f>
+        <v>0.15327494467426467</v>
+      </c>
+      <c r="P3">
+        <v>20</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q15" si="4">AVERAGEIF(H:H,P3,F:F)</f>
+        <v>0.50075000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1157,8 +2812,37 @@
       <c r="G4">
         <v>11566</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="M4">
+        <v>40</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>1.1447365653717099</v>
+      </c>
+      <c r="P4">
+        <v>40</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="4"/>
+        <v>2.4299999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1180,8 +2864,37 @@
       <c r="G5">
         <v>11402</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999992E-4</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="M5">
+        <v>60</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>3.5217445204400701</v>
+      </c>
+      <c r="P5">
+        <v>60</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>6.1219999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1203,8 +2916,37 @@
       <c r="G6">
         <v>2017</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>880.890486633705</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>5.6306658719342993E-4</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0.15327494467426467</v>
+      </c>
+      <c r="M6">
+        <v>80</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>7.6755091721393569</v>
+      </c>
+      <c r="P6">
+        <v>80</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>11.885999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1226,8 +2968,37 @@
       <c r="G7">
         <v>1980</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>880.890486633705</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>5.7328352123524621E-4</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.15327494467426467</v>
+      </c>
+      <c r="M7">
+        <v>100</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>13.92</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>19.244500000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1249,8 +3020,37 @@
       <c r="G8">
         <v>2000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>880.890486633705</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>5.6760744676757056E-4</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.15327494467426467</v>
+      </c>
+      <c r="M8">
+        <v>150</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>40.34252528124258</v>
+      </c>
+      <c r="P8">
+        <v>150</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>51.16375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1272,8 +3072,37 @@
       <c r="G9">
         <v>1993</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>880.890486633705</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>5.6987787655464082E-4</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.15327494467426467</v>
+      </c>
+      <c r="M9">
+        <v>200</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>84.796139332902101</v>
+      </c>
+      <c r="P9">
+        <v>200</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>98.117750000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1295,8 +3124,37 @@
       <c r="G10">
         <v>408</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>6578.9457779983322</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>3.7346409028279768E-4</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>1.1447365653717099</v>
+      </c>
+      <c r="M10">
+        <v>250</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>149.94921860566569</v>
+      </c>
+      <c r="P10">
+        <v>250</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>162.22049999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1318,8 +3176,37 @@
       <c r="G11">
         <v>415</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>40</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>6578.9457779983322</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>3.6708008873950201E-4</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>1.1447365653717099</v>
+      </c>
+      <c r="M11">
+        <v>300</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>238.03101855341419</v>
+      </c>
+      <c r="P11">
+        <v>300</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>279.47419999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1341,8 +3228,37 @@
       <c r="G12">
         <v>413</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>40</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>6578.9457779983322</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>3.6844808907020825E-4</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>1.1447365653717099</v>
+      </c>
+      <c r="M12">
+        <v>350</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>350.97122026486437</v>
+      </c>
+      <c r="P12">
+        <v>350</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>359.34966666666668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1364,8 +3280,37 @@
       <c r="G13">
         <v>413</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>40</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>6578.9457779983322</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>3.6844808907020825E-4</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>1.1447365653717099</v>
+      </c>
+      <c r="M13">
+        <v>400</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>490.47982295764695</v>
+      </c>
+      <c r="P13">
+        <v>400</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>490.10725000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1387,8 +3332,37 @@
       <c r="G14">
         <v>164</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>60</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>20239.911037011898</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>3.0182938990338056E-4</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>3.5217445204400701</v>
+      </c>
+      <c r="M14">
+        <v>450</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>658.09772083473229</v>
+      </c>
+      <c r="P14">
+        <v>450</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>647.27150000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1410,8 +3384,37 @@
       <c r="G15">
         <v>164</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>60</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>20239.911037011898</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>3.0247168521664689E-4</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>3.5217445204400701</v>
+      </c>
+      <c r="M15">
+        <v>500</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>855.23099253248449</v>
+      </c>
+      <c r="P15">
+        <v>500</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>812.24324999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1433,8 +3436,23 @@
       <c r="G16">
         <v>162</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>60</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>20239.911037011898</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>3.0548553245581959E-4</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>3.5217445204400701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1456,8 +3474,23 @@
       <c r="G17">
         <v>165</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>60</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>20239.911037011898</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>3.0010013329074045E-4</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>3.5217445204400701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1479,8 +3512,23 @@
       <c r="G18">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>80</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>44112.121678961819</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>2.6967644146832099E-4</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>7.6755091721393569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1502,8 +3550,23 @@
       <c r="G19">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>80</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>44112.121678961819</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>2.7074190824278389E-4</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>7.6755091721393569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1525,8 +3588,23 @@
       <c r="G20">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>80</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>44112.121678961819</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>2.6768152495443292E-4</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>7.6755091721393569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -1548,8 +3626,23 @@
       <c r="G21">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>80</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>44112.121678961819</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>2.6969911097416061E-4</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>7.6755091721393569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1571,8 +3664,23 @@
       <c r="G22">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>2.4263750000000001E-4</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>13.92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1594,8 +3702,23 @@
       <c r="G23">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>2.388875E-4</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>13.92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1617,8 +3740,23 @@
       <c r="G24">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>2.4001250000000001E-4</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>13.92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1640,8 +3778,23 @@
       <c r="G25">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>100</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>2.4068749999999999E-4</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>13.92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1663,8 +3816,23 @@
       <c r="G26">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>150</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>231853.59357035963</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>2.2713040237618397E-4</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>40.34252528124258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1686,8 +3854,23 @@
       <c r="G27">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>150</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>231853.59357035963</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>2.1919867282357762E-4</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>40.34252528124258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1709,8 +3892,23 @@
       <c r="G28">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>150</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>231853.59357035963</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>2.1862934802697944E-4</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>40.34252528124258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1732,8 +3930,23 @@
       <c r="G29">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>150</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>231853.59357035963</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>2.1773223016567325E-4</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>40.34252528124258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1755,8 +3968,23 @@
       <c r="G30">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>200</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>487334.13409713848</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>2.0000240734331995E-4</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>84.796139332902101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1778,8 +4006,23 @@
       <c r="G31">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>200</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>487334.13409713848</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>1.9996547169949655E-4</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>84.796139332902101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1801,8 +4044,23 @@
       <c r="G32">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>200</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>487334.13409713848</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>1.9991417219418625E-4</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>84.796139332902101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1824,8 +4082,23 @@
       <c r="G33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>200</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>487334.13409713848</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>2.0546067470833442E-4</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>84.796139332902101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -1847,8 +4120,23 @@
       <c r="G34">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>250</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>861777.11842336599</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>1.9139171425409241E-4</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="2"/>
+        <v>149.94921860566569</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +4158,23 @@
       <c r="G35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>250</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>861777.11842336599</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>1.8752180412454355E-4</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="2"/>
+        <v>149.94921860566569</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -1893,8 +4196,23 @@
       <c r="G36">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>250</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>861777.11842336599</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>1.8632775988966925E-4</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>149.94921860566569</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -1916,8 +4234,23 @@
       <c r="G37">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>250</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>861777.11842336599</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>1.8771675012207404E-4</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="2"/>
+        <v>149.94921860566569</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -1939,8 +4272,23 @@
       <c r="G38">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>300</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>1367994.3595023805</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>1.8788016062689969E-4</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="2"/>
+        <v>238.03101855341421</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -1962,8 +4310,23 @@
       <c r="G39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>300</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>1367994.3595023805</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>1.9116526189123144E-4</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="2"/>
+        <v>238.03101855341421</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -1985,8 +4348,23 @@
       <c r="G40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>300</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>1367994.3595023805</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>1.9221204983304791E-4</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="2"/>
+        <v>238.03101855341421</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -2008,8 +4386,23 @@
       <c r="G41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>300</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>1367994.3595023805</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>1.8618936418177297E-4</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="2"/>
+        <v>238.03101855341421</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -2031,8 +4424,23 @@
       <c r="G42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>300</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>1367994.3595023805</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>2.6402740441955124E-4</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="2"/>
+        <v>238.03101855341421</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -2054,8 +4462,23 @@
       <c r="G43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>350</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>2017075.9785337034</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>1.7880635327489406E-4</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="2"/>
+        <v>350.97122026486437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -2077,8 +4500,23 @@
       <c r="G44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <v>350</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>2017075.9785337034</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>1.7803394806230877E-4</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="2"/>
+        <v>350.97122026486437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -2100,8 +4538,23 @@
       <c r="G45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <v>350</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>2017075.9785337034</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>1.7762097403016273E-4</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="2"/>
+        <v>350.97122026486437</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2123,8 +4576,23 @@
       <c r="G46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <v>400</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>2818849.557227856</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>1.7381310710381967E-4</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="2"/>
+        <v>490.47982295764695</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -2146,8 +4614,23 @@
       <c r="G47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>400</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>2818849.557227856</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>1.7393585221418315E-4</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="2"/>
+        <v>490.47982295764695</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -2169,8 +4652,23 @@
       <c r="G48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <v>400</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>2818849.557227856</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>1.7326926821888551E-4</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="2"/>
+        <v>490.47982295764695</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -2192,8 +4690,23 @@
       <c r="G49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <v>400</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>2818849.557227856</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>1.7445308450005011E-4</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="2"/>
+        <v>490.47982295764695</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2215,8 +4728,23 @@
       <c r="G50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <v>450</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>3782170.8093950129</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>1.6929854104141411E-4</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="2"/>
+        <v>658.09772083473229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -2238,8 +4766,23 @@
       <c r="G51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>450</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>3782170.8093950129</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>1.6987863118291433E-4</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="2"/>
+        <v>658.09772083473229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -2261,8 +4804,23 @@
       <c r="G52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <v>450</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>3782170.8093950129</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>1.7326795457575455E-4</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="2"/>
+        <v>658.09772083473229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -2284,8 +4842,23 @@
       <c r="G53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <v>450</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>3782170.8093950129</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>1.7210513030851756E-4</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="2"/>
+        <v>658.09772083473229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -2307,8 +4880,23 @@
       <c r="G54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <v>500</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>4915120.6467384165</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>1.6650578059423067E-4</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="2"/>
+        <v>855.23099253248449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -2330,8 +4918,23 @@
       <c r="G55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <v>500</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>4915120.6467384165</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>1.6481162075595169E-4</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="2"/>
+        <v>855.23099253248449</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +4956,23 @@
       <c r="G56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <v>500</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>4915120.6467384165</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>1.641768448828365E-4</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="2"/>
+        <v>855.23099253248449</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>45</v>
       </c>
@@ -2375,6 +4993,27 @@
       </c>
       <c r="G57">
         <v>2</v>
+      </c>
+      <c r="H57">
+        <v>500</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>4915120.6467384165</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>1.6552167453709661E-4</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="2"/>
+        <v>855.23099253248449</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <f>AVERAGE(J2:J57)</f>
+        <v>2.9444912373899178E-4</v>
       </c>
     </row>
   </sheetData>
@@ -2382,5 +5021,6 @@
     <sortCondition ref="A2:A58"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/third assignment/karger.xlsx
+++ b/third assignment/karger.xlsx
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Advanced Algorithm\AdvancedAlgorithms-assignments\third assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14D0AD2-7650-4657-B539-687706F9109C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B206B0-B10D-463E-BBF5-888425E4BC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="karger" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1010,7 +1006,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>0.0001745*n^2*log^3(n)</c:v>
+            <c:v>0.000174*n^2*log^3(n)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2067,255 +2063,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="result_prim"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="U2">
-            <v>10</v>
-          </cell>
-          <cell r="V2">
-            <v>3.9999999999999994E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="U3">
-            <v>20</v>
-          </cell>
-          <cell r="V3">
-            <v>4.4999999999999998E-2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="U4">
-            <v>40</v>
-          </cell>
-          <cell r="V4">
-            <v>8.5000000000000006E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="U5">
-            <v>80</v>
-          </cell>
-          <cell r="V5">
-            <v>0.16749999999999998</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="U6">
-            <v>100</v>
-          </cell>
-          <cell r="V6">
-            <v>0.215</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="U7">
-            <v>200</v>
-          </cell>
-          <cell r="V7">
-            <v>0.435</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="U8">
-            <v>400</v>
-          </cell>
-          <cell r="V8">
-            <v>0.89249999999999996</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="U9">
-            <v>800</v>
-          </cell>
-          <cell r="V9">
-            <v>1.7324999999999999</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="U10">
-            <v>1000</v>
-          </cell>
-          <cell r="V10">
-            <v>2.0449999999999999</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="U11">
-            <v>2000</v>
-          </cell>
-          <cell r="V11">
-            <v>4.3674999999999997</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="U12">
-            <v>4000</v>
-          </cell>
-          <cell r="V12">
-            <v>8.5574999999999992</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="U13">
-            <v>8000</v>
-          </cell>
-          <cell r="V13">
-            <v>16.434999999999999</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="U14">
-            <v>10000</v>
-          </cell>
-          <cell r="V14">
-            <v>18.8125</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="U15">
-            <v>20000</v>
-          </cell>
-          <cell r="V15">
-            <v>40.852499999999999</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="U16">
-            <v>40000</v>
-          </cell>
-          <cell r="V16">
-            <v>93.96</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="U17">
-            <v>80000</v>
-          </cell>
-          <cell r="V17">
-            <v>222.60250000000002</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="U18">
-            <v>100000</v>
-          </cell>
-          <cell r="V18">
-            <v>275.065</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="result_kruskal_union_find"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="V2">
-            <v>5.4999999999999993E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="V3">
-            <v>0.11250000000000002</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="V4">
-            <v>0.16500000000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="V5">
-            <v>0.21249999999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="V6">
-            <v>0.24</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="V7">
-            <v>0.35250000000000004</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="V8">
-            <v>0.59250000000000003</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="V9">
-            <v>1.1750000000000003</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="V10">
-            <v>1.345</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="V11">
-            <v>2.2050000000000001</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="V12">
-            <v>4.5724999999999998</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="V13">
-            <v>10.715</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="V14">
-            <v>20.9575</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="V15">
-            <v>40.482500000000002</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="V16">
-            <v>88.472500000000011</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="V17">
-            <v>194.03000000000003</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="V18">
-            <v>273.95500000000004</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
@@ -2616,7 +2363,7 @@
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/third assignment/karger.xlsx
+++ b/third assignment/karger.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Advanced Algorithm\AdvancedAlgorithms-assignments\third assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davide/Sviluppo/Advanced Algorithm/third assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B206B0-B10D-463E-BBF5-888425E4BC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791E4431-7A41-5A46-B3F9-89516BA9F42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="760" windowWidth="29140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="karger" sheetId="1" r:id="rId1"/>
@@ -223,9 +223,6 @@
     <t>input_random_55_500</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>n^2*log^3(n)</t>
   </si>
   <si>
@@ -245,6 +242,9 @@
   </si>
   <si>
     <t>Time (ms)</t>
+  </si>
+  <si>
+    <t>vertices</t>
   </si>
 </sst>
 </file>
@@ -951,46 +951,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>8.6249999999999993E-2</c:v>
+                  <c:v>8.3000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50075000000000003</c:v>
+                  <c:v>0.48499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4299999999999997</c:v>
+                  <c:v>2.3387500000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1219999999999999</c:v>
+                  <c:v>5.9280000000000008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.885999999999999</c:v>
+                  <c:v>11.525500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.244500000000002</c:v>
+                  <c:v>18.749000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.16375</c:v>
+                  <c:v>49.036999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98.117750000000001</c:v>
+                  <c:v>94.117750000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>162.22049999999999</c:v>
+                  <c:v>155.63825</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>279.47419999999994</c:v>
+                  <c:v>265.86759999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>359.34966666666668</c:v>
+                  <c:v>347.98166666666663</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>490.10725000000002</c:v>
+                  <c:v>470.81074999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>647.27150000000006</c:v>
+                  <c:v>618.89699999999993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>812.24324999999999</c:v>
+                  <c:v>783.08850000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2362,25 +2362,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2403,34 +2402,34 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" t="s">
         <v>69</v>
       </c>
-      <c r="P1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -2441,16 +2440,16 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>6.4000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>8.5999999999999993E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="G2">
-        <v>11585</v>
+        <v>11921</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -2461,7 +2460,7 @@
       </c>
       <c r="J2">
         <f>F2/I2</f>
-        <v>8.5999999999999998E-4</v>
+        <v>8.4000000000000003E-4</v>
       </c>
       <c r="K2">
         <v>1.74E-4</v>
@@ -2482,10 +2481,10 @@
       </c>
       <c r="Q2">
         <f>AVERAGEIF(H:H,P2,F:F)</f>
-        <v>8.6249999999999993E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2496,16 +2495,16 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>1.0999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>8.5000000000000006E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G3">
-        <v>11797</v>
+        <v>12267</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -2516,7 +2515,7 @@
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J57" si="1">F3/I3</f>
-        <v>8.5000000000000006E-4</v>
+        <v>8.1999999999999998E-4</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L57" si="2">I3*$K$2</f>
@@ -2534,10 +2533,10 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q15" si="4">AVERAGEIF(H:H,P3,F:F)</f>
-        <v>0.50075000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -2548,16 +2547,16 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>1.7999999999999999E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>8.5999999999999993E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="G4">
-        <v>11566</v>
+        <v>12003</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -2568,7 +2567,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>8.5999999999999998E-4</v>
+        <v>8.3000000000000001E-4</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
@@ -2586,30 +2585,30 @@
       </c>
       <c r="Q4">
         <f t="shared" si="4"/>
-        <v>2.4299999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.3387500000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5">
-        <v>5152</v>
+        <v>4974</v>
       </c>
       <c r="C5">
         <v>11</v>
       </c>
       <c r="D5">
-        <v>0.115</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>8.7999999999999995E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="G5">
-        <v>11402</v>
+        <v>12076</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -2620,7 +2619,7 @@
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>8.7999999999999992E-4</v>
+        <v>8.3000000000000001E-4</v>
       </c>
       <c r="L5">
         <f t="shared" si="2"/>
@@ -2638,10 +2637,10 @@
       </c>
       <c r="Q5">
         <f t="shared" si="4"/>
-        <v>6.1219999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5.9280000000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2652,16 +2651,16 @@
         <v>19</v>
       </c>
       <c r="D6">
-        <v>2.9000000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.496</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="G6">
-        <v>2017</v>
+        <v>2064</v>
       </c>
       <c r="H6">
         <v>20</v>
@@ -2672,7 +2671,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>5.6306658719342993E-4</v>
+        <v>5.5057922336454338E-4</v>
       </c>
       <c r="L6">
         <f t="shared" si="2"/>
@@ -2690,10 +2689,10 @@
       </c>
       <c r="Q6">
         <f t="shared" si="4"/>
-        <v>11.885999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>11.525500000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -2704,16 +2703,16 @@
         <v>19</v>
       </c>
       <c r="D7">
-        <v>0.111</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.505</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="G7">
-        <v>1980</v>
+        <v>2063</v>
       </c>
       <c r="H7">
         <v>20</v>
@@ -2724,7 +2723,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>5.7328352123524621E-4</v>
+        <v>5.5057922336454338E-4</v>
       </c>
       <c r="L7">
         <f t="shared" si="2"/>
@@ -2742,10 +2741,10 @@
       </c>
       <c r="Q7">
         <f t="shared" si="4"/>
-        <v>19.244500000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18.749000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2756,16 +2755,16 @@
         <v>19</v>
       </c>
       <c r="D8">
-        <v>2.9000000000000001E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="G8">
-        <v>2000</v>
+        <v>2071</v>
       </c>
       <c r="H8">
         <v>20</v>
@@ -2776,7 +2775,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>5.6760744676757056E-4</v>
+        <v>5.4830879357747311E-4</v>
       </c>
       <c r="L8">
         <f t="shared" si="2"/>
@@ -2794,10 +2793,10 @@
       </c>
       <c r="Q8">
         <f t="shared" si="4"/>
-        <v>51.16375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>49.036999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -2808,16 +2807,16 @@
         <v>19</v>
       </c>
       <c r="D9">
-        <v>6.6000000000000003E-2</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>0.502</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="G9">
-        <v>1993</v>
+        <v>2055</v>
       </c>
       <c r="H9">
         <v>20</v>
@@ -2828,7 +2827,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>5.6987787655464082E-4</v>
+        <v>5.5284965315161364E-4</v>
       </c>
       <c r="L9">
         <f t="shared" si="2"/>
@@ -2846,10 +2845,10 @@
       </c>
       <c r="Q9">
         <f t="shared" si="4"/>
-        <v>98.117750000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>94.117750000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2860,16 +2859,16 @@
         <v>28</v>
       </c>
       <c r="D10">
-        <v>0.27300000000000002</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>2.4569999999999999</v>
+        <v>2.339</v>
       </c>
       <c r="G10">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="H10">
         <v>40</v>
@@ -2880,7 +2879,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>3.7346409028279768E-4</v>
+        <v>3.5552808594687172E-4</v>
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
@@ -2898,10 +2897,10 @@
       </c>
       <c r="Q10">
         <f t="shared" si="4"/>
-        <v>162.22049999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>155.63825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -2912,16 +2911,16 @@
         <v>28</v>
       </c>
       <c r="D11">
-        <v>0.27700000000000002</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>2.415</v>
+        <v>2.3380000000000001</v>
       </c>
       <c r="G11">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="H11">
         <v>40</v>
@@ -2932,7 +2931,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>3.6708008873950201E-4</v>
+        <v>3.5537608591012664E-4</v>
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
@@ -2950,10 +2949,10 @@
       </c>
       <c r="Q11">
         <f t="shared" si="4"/>
-        <v>279.47419999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>265.86759999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2964,16 +2963,16 @@
         <v>28</v>
       </c>
       <c r="D12">
-        <v>0.17199999999999999</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>2.4239999999999999</v>
+        <v>2.3290000000000002</v>
       </c>
       <c r="G12">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="H12">
         <v>40</v>
@@ -2984,7 +2983,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>3.6844808907020825E-4</v>
+        <v>3.540080855794204E-4</v>
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
@@ -3002,10 +3001,10 @@
       </c>
       <c r="Q12">
         <f t="shared" si="4"/>
-        <v>359.34966666666668</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>347.98166666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -3016,16 +3015,16 @@
         <v>28</v>
       </c>
       <c r="D13">
-        <v>0.109</v>
+        <v>0.371</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>2.4239999999999999</v>
+        <v>2.3490000000000002</v>
       </c>
       <c r="G13">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="H13">
         <v>40</v>
@@ -3036,7 +3035,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>3.6844808907020825E-4</v>
+        <v>3.5704808631432309E-4</v>
       </c>
       <c r="L13">
         <f t="shared" si="2"/>
@@ -3054,10 +3053,10 @@
       </c>
       <c r="Q13">
         <f t="shared" si="4"/>
-        <v>490.10725000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>470.81074999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -3068,16 +3067,16 @@
         <v>35</v>
       </c>
       <c r="D14">
-        <v>0.16800000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>6.109</v>
+        <v>5.9260000000000002</v>
       </c>
       <c r="G14">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H14">
         <v>60</v>
@@ -3088,7 +3087,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>3.0182938990338056E-4</v>
+        <v>2.9278784818586239E-4</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
@@ -3106,10 +3105,10 @@
       </c>
       <c r="Q14">
         <f t="shared" si="4"/>
-        <v>647.27150000000006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>618.89699999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -3120,16 +3119,16 @@
         <v>35</v>
       </c>
       <c r="D15">
-        <v>0.189</v>
+        <v>0.186</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>6.1219999999999999</v>
+        <v>5.9210000000000003</v>
       </c>
       <c r="G15">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H15">
         <v>60</v>
@@ -3140,7 +3139,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>3.0247168521664689E-4</v>
+        <v>2.925408115269138E-4</v>
       </c>
       <c r="L15">
         <f t="shared" si="2"/>
@@ -3158,10 +3157,10 @@
       </c>
       <c r="Q15">
         <f t="shared" si="4"/>
-        <v>812.24324999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>783.08850000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -3172,16 +3171,16 @@
         <v>35</v>
       </c>
       <c r="D16">
-        <v>0.39600000000000002</v>
+        <v>1.925</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F16">
-        <v>6.1829999999999998</v>
+        <v>5.9329999999999998</v>
       </c>
       <c r="G16">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="H16">
         <v>60</v>
@@ -3192,14 +3191,14 @@
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>3.0548553245581959E-4</v>
+        <v>2.9313369950839039E-4</v>
       </c>
       <c r="L16">
         <f t="shared" si="2"/>
         <v>3.5217445204400701</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -3210,16 +3209,16 @@
         <v>35</v>
       </c>
       <c r="D17">
-        <v>0.183</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>6.0739999999999998</v>
+        <v>5.9320000000000004</v>
       </c>
       <c r="G17">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H17">
         <v>60</v>
@@ -3230,14 +3229,14 @@
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>3.0010013329074045E-4</v>
+        <v>2.9308429217660072E-4</v>
       </c>
       <c r="L17">
         <f t="shared" si="2"/>
         <v>3.5217445204400701</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3248,16 +3247,16 @@
         <v>40</v>
       </c>
       <c r="D18">
-        <v>0.81699999999999995</v>
+        <v>1.544</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18">
-        <v>11.896000000000001</v>
+        <v>11.512</v>
       </c>
       <c r="G18">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H18">
         <v>80</v>
@@ -3268,14 +3267,14 @@
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>2.6967644146832099E-4</v>
+        <v>2.6097135122590039E-4</v>
       </c>
       <c r="L18">
         <f t="shared" si="2"/>
         <v>7.6755091721393569</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -3286,16 +3285,16 @@
         <v>40</v>
       </c>
       <c r="D19">
-        <v>3.3820000000000001</v>
+        <v>0.312</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>11.943</v>
+        <v>11.523999999999999</v>
       </c>
       <c r="G19">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H19">
         <v>80</v>
@@ -3306,14 +3305,14 @@
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>2.7074190824278389E-4</v>
+        <v>2.6124338529597604E-4</v>
       </c>
       <c r="L19">
         <f t="shared" si="2"/>
         <v>7.6755091721393569</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -3324,16 +3323,16 @@
         <v>40</v>
       </c>
       <c r="D20">
-        <v>1.417</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>11.808</v>
+        <v>11.512</v>
       </c>
       <c r="G20">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H20">
         <v>80</v>
@@ -3344,14 +3343,14 @@
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>2.6768152495443292E-4</v>
+        <v>2.6097135122590039E-4</v>
       </c>
       <c r="L20">
         <f t="shared" si="2"/>
         <v>7.6755091721393569</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3362,16 +3361,16 @@
         <v>40</v>
       </c>
       <c r="D21">
-        <v>0.312</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>11.897</v>
+        <v>11.554</v>
       </c>
       <c r="G21">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H21">
         <v>80</v>
@@ -3382,14 +3381,14 @@
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>2.6969911097416061E-4</v>
+        <v>2.6192347047116518E-4</v>
       </c>
       <c r="L21">
         <f t="shared" si="2"/>
         <v>7.6755091721393569</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3400,16 +3399,16 @@
         <v>44</v>
       </c>
       <c r="D22">
-        <v>0.86899999999999999</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>19.411000000000001</v>
+        <v>18.724</v>
       </c>
       <c r="G22">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H22">
         <v>100</v>
@@ -3420,14 +3419,14 @@
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>2.4263750000000001E-4</v>
+        <v>2.3405E-4</v>
       </c>
       <c r="L22">
         <f t="shared" si="2"/>
         <v>13.92</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -3438,16 +3437,16 @@
         <v>44</v>
       </c>
       <c r="D23">
-        <v>2.6190000000000002</v>
+        <v>2.3069999999999999</v>
       </c>
       <c r="E23">
         <v>5</v>
       </c>
       <c r="F23">
-        <v>19.111000000000001</v>
+        <v>18.631</v>
       </c>
       <c r="G23">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H23">
         <v>100</v>
@@ -3458,14 +3457,14 @@
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>2.388875E-4</v>
+        <v>2.3288750000000002E-4</v>
       </c>
       <c r="L23">
         <f t="shared" si="2"/>
         <v>13.92</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -3476,16 +3475,16 @@
         <v>44</v>
       </c>
       <c r="D24">
-        <v>0.54500000000000004</v>
+        <v>2.157</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>19.201000000000001</v>
+        <v>18.771000000000001</v>
       </c>
       <c r="G24">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H24">
         <v>100</v>
@@ -3496,14 +3495,14 @@
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>2.4001250000000001E-4</v>
+        <v>2.346375E-4</v>
       </c>
       <c r="L24">
         <f t="shared" si="2"/>
         <v>13.92</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -3514,16 +3513,16 @@
         <v>44</v>
       </c>
       <c r="D25">
-        <v>0.86399999999999999</v>
+        <v>1.181</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>19.254999999999999</v>
+        <v>18.87</v>
       </c>
       <c r="G25">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H25">
         <v>100</v>
@@ -3534,14 +3533,14 @@
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
-        <v>2.4068749999999999E-4</v>
+        <v>2.35875E-4</v>
       </c>
       <c r="L25">
         <f t="shared" si="2"/>
         <v>13.92</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -3552,16 +3551,16 @@
         <v>52</v>
       </c>
       <c r="D26">
-        <v>7.4569999999999999</v>
+        <v>6.7839999999999998</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26">
-        <v>52.661000000000001</v>
+        <v>50.835999999999999</v>
       </c>
       <c r="G26">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H26">
         <v>150</v>
@@ -3572,14 +3571,14 @@
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
-        <v>2.2713040237618397E-4</v>
+        <v>2.1925905575655014E-4</v>
       </c>
       <c r="L26">
         <f t="shared" si="2"/>
         <v>40.34252528124258</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3590,16 +3589,16 @@
         <v>52</v>
       </c>
       <c r="D27">
-        <v>1.3380000000000001</v>
+        <v>2.7989999999999999</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>50.822000000000003</v>
+        <v>48.408999999999999</v>
       </c>
       <c r="G27">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H27">
         <v>150</v>
@@ -3610,14 +3609,14 @@
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>2.1919867282357762E-4</v>
+        <v>2.0879124301909741E-4</v>
       </c>
       <c r="L27">
         <f t="shared" si="2"/>
         <v>40.34252528124258</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -3628,16 +3627,16 @@
         <v>52</v>
       </c>
       <c r="D28">
-        <v>5.0599999999999996</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>50.69</v>
+        <v>48.313000000000002</v>
       </c>
       <c r="G28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H28">
         <v>150</v>
@@ -3648,14 +3647,14 @@
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
-        <v>2.1862934802697944E-4</v>
+        <v>2.0837718862157147E-4</v>
       </c>
       <c r="L28">
         <f t="shared" si="2"/>
         <v>40.34252528124258</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -3666,16 +3665,16 @@
         <v>52</v>
       </c>
       <c r="D29">
-        <v>7.1890000000000001</v>
+        <v>5.85</v>
       </c>
       <c r="E29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29">
-        <v>50.481999999999999</v>
+        <v>48.59</v>
       </c>
       <c r="G29">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H29">
         <v>150</v>
@@ -3686,14 +3685,14 @@
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
-        <v>2.1773223016567325E-4</v>
+        <v>2.0957190808109947E-4</v>
       </c>
       <c r="L29">
         <f t="shared" si="2"/>
         <v>40.34252528124258</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -3704,13 +3703,13 @@
         <v>58</v>
       </c>
       <c r="D30">
-        <v>6.5949999999999998</v>
+        <v>3.456</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>97.468000000000004</v>
+        <v>93.942999999999998</v>
       </c>
       <c r="G30">
         <v>11</v>
@@ -3724,14 +3723,14 @@
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>2.0000240734331995E-4</v>
+        <v>1.9276917709456956E-4</v>
       </c>
       <c r="L30">
         <f t="shared" si="2"/>
         <v>84.796139332902101</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -3742,13 +3741,13 @@
         <v>58</v>
       </c>
       <c r="D31">
-        <v>2.3029999999999999</v>
+        <v>15.205</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F31">
-        <v>97.45</v>
+        <v>93.763000000000005</v>
       </c>
       <c r="G31">
         <v>11</v>
@@ -3762,14 +3761,14 @@
       </c>
       <c r="J31">
         <f t="shared" si="1"/>
-        <v>1.9996547169949655E-4</v>
+        <v>1.923998206563355E-4</v>
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
         <v>84.796139332902101</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -3780,13 +3779,13 @@
         <v>58</v>
       </c>
       <c r="D32">
-        <v>4.93</v>
+        <v>4.9370000000000003</v>
       </c>
       <c r="E32">
         <v>3</v>
       </c>
       <c r="F32">
-        <v>97.424999999999997</v>
+        <v>93.635000000000005</v>
       </c>
       <c r="G32">
         <v>11</v>
@@ -3800,14 +3799,14 @@
       </c>
       <c r="J32">
         <f t="shared" si="1"/>
-        <v>1.9991417219418625E-4</v>
+        <v>1.9213716718914685E-4</v>
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
         <v>84.796139332902101</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -3818,16 +3817,16 @@
         <v>58</v>
       </c>
       <c r="D33">
-        <v>6.758</v>
+        <v>39.619999999999997</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F33">
-        <v>100.128</v>
+        <v>95.13</v>
       </c>
       <c r="G33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H33">
         <v>200</v>
@@ -3838,14 +3837,14 @@
       </c>
       <c r="J33">
         <f t="shared" si="1"/>
-        <v>2.0546067470833442E-4</v>
+        <v>1.9520487760670195E-4</v>
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
         <v>84.796139332902101</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -3856,13 +3855,13 @@
         <v>63</v>
       </c>
       <c r="D34">
-        <v>8.3650000000000002</v>
+        <v>2.5169999999999999</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>164.93700000000001</v>
+        <v>155.977</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -3876,14 +3875,14 @@
       </c>
       <c r="J34">
         <f t="shared" si="1"/>
-        <v>1.9139171425409241E-4</v>
+        <v>1.8099459438579923E-4</v>
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
         <v>149.94921860566569</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -3894,13 +3893,13 @@
         <v>63</v>
       </c>
       <c r="D35">
-        <v>2.464</v>
+        <v>5.4219999999999997</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>161.602</v>
+        <v>155.53399999999999</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -3914,14 +3913,14 @@
       </c>
       <c r="J35">
         <f t="shared" si="1"/>
-        <v>1.8752180412454355E-4</v>
+        <v>1.804805403565968E-4</v>
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
         <v>149.94921860566569</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -3932,13 +3931,13 @@
         <v>63</v>
       </c>
       <c r="D36">
-        <v>2.4700000000000002</v>
+        <v>8.4879999999999995</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>160.57300000000001</v>
+        <v>156.07</v>
       </c>
       <c r="G36">
         <v>7</v>
@@ -3952,14 +3951,14 @@
       </c>
       <c r="J36">
         <f t="shared" si="1"/>
-        <v>1.8632775988966925E-4</v>
+        <v>1.8110251092014646E-4</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
         <v>149.94921860566569</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -3970,13 +3969,13 @@
         <v>63</v>
       </c>
       <c r="D37">
-        <v>2.7280000000000002</v>
+        <v>2.4630000000000001</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37">
-        <v>161.77000000000001</v>
+        <v>154.97200000000001</v>
       </c>
       <c r="G37">
         <v>7</v>
@@ -3990,14 +3989,14 @@
       </c>
       <c r="J37">
         <f t="shared" si="1"/>
-        <v>1.8771675012207404E-4</v>
+        <v>1.798283995791436E-4</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
         <v>149.94921860566569</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -4008,16 +4007,16 @@
         <v>68</v>
       </c>
       <c r="D38">
-        <v>3.4889999999999999</v>
+        <v>4.5869999999999997</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>257.01900000000001</v>
+        <v>246.881</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H38">
         <v>300</v>
@@ -4028,14 +4027,14 @@
       </c>
       <c r="J38">
         <f t="shared" si="1"/>
-        <v>1.8788016062689969E-4</v>
+        <v>1.8046931135725226E-4</v>
       </c>
       <c r="L38">
         <f t="shared" si="2"/>
         <v>238.03101855341421</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -4046,16 +4045,16 @@
         <v>68</v>
       </c>
       <c r="D39">
-        <v>3.7160000000000002</v>
+        <v>4.3410000000000002</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>261.51299999999998</v>
+        <v>244.52099999999999</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H39">
         <v>300</v>
@@ -4066,14 +4065,14 @@
       </c>
       <c r="J39">
         <f t="shared" si="1"/>
-        <v>1.9116526189123144E-4</v>
+        <v>1.7874415804532013E-4</v>
       </c>
       <c r="L39">
         <f t="shared" si="2"/>
         <v>238.03101855341421</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -4084,16 +4083,16 @@
         <v>68</v>
       </c>
       <c r="D40">
-        <v>25.933</v>
+        <v>15.901999999999999</v>
       </c>
       <c r="E40">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F40">
-        <v>262.94499999999999</v>
+        <v>243.696</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H40">
         <v>300</v>
@@ -4104,14 +4103,14 @@
       </c>
       <c r="J40">
         <f t="shared" si="1"/>
-        <v>1.9221204983304791E-4</v>
+        <v>1.7814108538330997E-4</v>
       </c>
       <c r="L40">
         <f t="shared" si="2"/>
         <v>238.03101855341421</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -4122,16 +4121,16 @@
         <v>68</v>
       </c>
       <c r="D41">
-        <v>11.25</v>
+        <v>22.585999999999999</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F41">
-        <v>254.70599999999999</v>
+        <v>243.21600000000001</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H41">
         <v>300</v>
@@ -4142,14 +4141,14 @@
       </c>
       <c r="J41">
         <f t="shared" si="1"/>
-        <v>1.8618936418177297E-4</v>
+        <v>1.7779020674359497E-4</v>
       </c>
       <c r="L41">
         <f t="shared" si="2"/>
         <v>238.03101855341421</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -4160,13 +4159,13 @@
         <v>71</v>
       </c>
       <c r="D42">
-        <v>51.415999999999997</v>
+        <v>30.513000000000002</v>
       </c>
       <c r="E42">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F42">
-        <v>361.18799999999999</v>
+        <v>351.024</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4180,14 +4179,14 @@
       </c>
       <c r="J42">
         <f t="shared" si="1"/>
-        <v>2.6402740441955124E-4</v>
+        <v>2.5659754922358595E-4</v>
       </c>
       <c r="L42">
         <f t="shared" si="2"/>
         <v>238.03101855341421</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -4198,13 +4197,13 @@
         <v>71</v>
       </c>
       <c r="D43">
-        <v>15.993</v>
+        <v>24.189</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43">
-        <v>360.666</v>
+        <v>350.54300000000001</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4218,14 +4217,14 @@
       </c>
       <c r="J43">
         <f t="shared" si="1"/>
-        <v>1.7880635327489406E-4</v>
+        <v>1.7378770246167144E-4</v>
       </c>
       <c r="L43">
         <f t="shared" si="2"/>
         <v>350.97122026486437</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -4236,13 +4235,13 @@
         <v>71</v>
       </c>
       <c r="D44">
-        <v>32.079000000000001</v>
+        <v>49.890999999999998</v>
       </c>
       <c r="E44">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F44">
-        <v>359.108</v>
+        <v>346.709</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -4256,14 +4255,14 @@
       </c>
       <c r="J44">
         <f t="shared" si="1"/>
-        <v>1.7803394806230877E-4</v>
+        <v>1.7188693122607965E-4</v>
       </c>
       <c r="L44">
         <f t="shared" si="2"/>
         <v>350.97122026486437</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -4274,13 +4273,13 @@
         <v>71</v>
       </c>
       <c r="D45">
-        <v>16.808</v>
+        <v>15.276999999999999</v>
       </c>
       <c r="E45">
         <v>3</v>
       </c>
       <c r="F45">
-        <v>358.27499999999998</v>
+        <v>346.69299999999998</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4294,14 +4293,14 @@
       </c>
       <c r="J45">
         <f t="shared" si="1"/>
-        <v>1.7762097403016273E-4</v>
+        <v>1.7187899895175271E-4</v>
       </c>
       <c r="L45">
         <f t="shared" si="2"/>
         <v>350.97122026486437</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -4312,13 +4311,13 @@
         <v>75</v>
       </c>
       <c r="D46">
-        <v>20.373000000000001</v>
+        <v>6.3620000000000001</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>489.95299999999997</v>
+        <v>473.05799999999999</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4332,14 +4331,14 @@
       </c>
       <c r="J46">
         <f t="shared" si="1"/>
-        <v>1.7381310710381967E-4</v>
+        <v>1.6781952722060836E-4</v>
       </c>
       <c r="L46">
         <f t="shared" si="2"/>
         <v>490.47982295764695</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -4350,13 +4349,13 @@
         <v>75</v>
       </c>
       <c r="D47">
-        <v>20.359000000000002</v>
+        <v>7.0570000000000004</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>490.29899999999998</v>
+        <v>468.41399999999999</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4370,14 +4369,14 @@
       </c>
       <c r="J47">
         <f t="shared" si="1"/>
-        <v>1.7393585221418315E-4</v>
+        <v>1.6617204660636549E-4</v>
       </c>
       <c r="L47">
         <f t="shared" si="2"/>
         <v>490.47982295764695</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -4388,13 +4387,13 @@
         <v>75</v>
       </c>
       <c r="D48">
-        <v>33.206000000000003</v>
+        <v>25.981000000000002</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F48">
-        <v>488.42</v>
+        <v>470.99099999999999</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4408,14 +4407,14 @@
       </c>
       <c r="J48">
         <f t="shared" si="1"/>
-        <v>1.7326926821888551E-4</v>
+        <v>1.6708624935031551E-4</v>
       </c>
       <c r="L48">
         <f t="shared" si="2"/>
         <v>490.47982295764695</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -4426,13 +4425,13 @@
         <v>75</v>
       </c>
       <c r="D49">
-        <v>26.818999999999999</v>
+        <v>39.304000000000002</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F49">
-        <v>491.75700000000001</v>
+        <v>470.78</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -4446,14 +4445,14 @@
       </c>
       <c r="J49">
         <f t="shared" si="1"/>
-        <v>1.7445308450005011E-4</v>
+        <v>1.6701139611827301E-4</v>
       </c>
       <c r="L49">
         <f t="shared" si="2"/>
         <v>490.47982295764695</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -4464,13 +4463,13 @@
         <v>78</v>
       </c>
       <c r="D50">
-        <v>8.2650000000000006</v>
+        <v>8.02</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>640.31600000000003</v>
+        <v>617.48599999999999</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4484,14 +4483,14 @@
       </c>
       <c r="J50">
         <f t="shared" si="1"/>
-        <v>1.6929854104141411E-4</v>
+        <v>1.6326232502935836E-4</v>
       </c>
       <c r="L50">
         <f t="shared" si="2"/>
         <v>658.09772083473229</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -4502,13 +4501,13 @@
         <v>78</v>
       </c>
       <c r="D51">
-        <v>16.768999999999998</v>
+        <v>8.2720000000000002</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>642.51</v>
+        <v>616.27200000000005</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4522,14 +4521,14 @@
       </c>
       <c r="J51">
         <f t="shared" si="1"/>
-        <v>1.6987863118291433E-4</v>
+        <v>1.6294134534304057E-4</v>
       </c>
       <c r="L51">
         <f t="shared" si="2"/>
         <v>658.09772083473229</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -4540,13 +4539,13 @@
         <v>78</v>
       </c>
       <c r="D52">
-        <v>9.4429999999999996</v>
+        <v>24.666</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F52">
-        <v>655.32899999999995</v>
+        <v>622.71500000000003</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4560,14 +4559,14 @@
       </c>
       <c r="J52">
         <f t="shared" si="1"/>
-        <v>1.7326795457575455E-4</v>
+        <v>1.6464486438665313E-4</v>
       </c>
       <c r="L52">
         <f t="shared" si="2"/>
         <v>658.09772083473229</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -4578,13 +4577,13 @@
         <v>78</v>
       </c>
       <c r="D53">
-        <v>9.1969999999999992</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53">
-        <v>650.93100000000004</v>
+        <v>619.11500000000001</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -4598,14 +4597,14 @@
       </c>
       <c r="J53">
         <f t="shared" si="1"/>
-        <v>1.7210513030851756E-4</v>
+        <v>1.6369303006149322E-4</v>
       </c>
       <c r="L53">
         <f t="shared" si="2"/>
         <v>658.09772083473229</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -4616,13 +4615,13 @@
         <v>80</v>
       </c>
       <c r="D54">
-        <v>10.492000000000001</v>
+        <v>14.093999999999999</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54">
-        <v>818.39599999999996</v>
+        <v>783.029</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -4636,14 +4635,14 @@
       </c>
       <c r="J54">
         <f t="shared" si="1"/>
-        <v>1.6650578059423067E-4</v>
+        <v>1.5931022985561985E-4</v>
       </c>
       <c r="L54">
         <f t="shared" si="2"/>
         <v>855.23099253248449</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -4654,13 +4653,13 @@
         <v>80</v>
       </c>
       <c r="D55">
-        <v>10.894</v>
+        <v>70.581999999999994</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F55">
-        <v>810.06899999999996</v>
+        <v>786.35599999999999</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -4674,14 +4673,14 @@
       </c>
       <c r="J55">
         <f t="shared" si="1"/>
-        <v>1.6481162075595169E-4</v>
+        <v>1.5998712066647057E-4</v>
       </c>
       <c r="L55">
         <f t="shared" si="2"/>
         <v>855.23099253248449</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -4692,13 +4691,13 @@
         <v>80</v>
       </c>
       <c r="D56">
-        <v>10.750999999999999</v>
+        <v>9.7759999999999998</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>806.94899999999996</v>
+        <v>779.29200000000003</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -4712,14 +4711,14 @@
       </c>
       <c r="J56">
         <f t="shared" si="1"/>
-        <v>1.641768448828365E-4</v>
+        <v>1.5854992298451999E-4</v>
       </c>
       <c r="L56">
         <f t="shared" si="2"/>
         <v>855.23099253248449</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>45</v>
       </c>
@@ -4730,13 +4729,13 @@
         <v>80</v>
       </c>
       <c r="D57">
-        <v>73.024000000000001</v>
+        <v>20.98</v>
       </c>
       <c r="E57">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F57">
-        <v>813.55899999999997</v>
+        <v>783.67700000000002</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -4750,17 +4749,17 @@
       </c>
       <c r="J57">
         <f t="shared" si="1"/>
-        <v>1.6552167453709661E-4</v>
+        <v>1.5944206792157454E-4</v>
       </c>
       <c r="L57">
         <f t="shared" si="2"/>
         <v>855.23099253248449</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J58">
         <f>AVERAGE(J2:J57)</f>
-        <v>2.9444912373899178E-4</v>
+        <v>2.8372349998266502E-4</v>
       </c>
     </row>
   </sheetData>

--- a/third assignment/karger.xlsx
+++ b/third assignment/karger.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davide/Sviluppo/Advanced Algorithm/third assignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Advanced Algorithm\AdvancedAlgorithms-assignments\third assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791E4431-7A41-5A46-B3F9-89516BA9F42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A88034-DF14-4683-B470-2DEC750078DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="760" windowWidth="29140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="karger" sheetId="1" r:id="rId1"/>
@@ -895,7 +895,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>karger!$M$2:$M$15</c:f>
+              <c:f>karger!$P$2:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1006,7 +1006,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>0.000174*n^2*log^3(n)</c:v>
+            <c:v>0.0001685*n^2*log^3(n)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1090,46 +1090,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.7399999999999999E-2</c:v>
+                  <c:v>1.685E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15327494467426467</c:v>
+                  <c:v>0.14843004699777929</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1447365653717099</c:v>
+                  <c:v>1.108552363592719</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5217445204400701</c:v>
+                  <c:v>3.410425009736505</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6755091721393569</c:v>
+                  <c:v>7.4328925029050668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.92</c:v>
+                  <c:v>13.48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.34252528124258</c:v>
+                  <c:v>39.067330516605601</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84.796139332902101</c:v>
+                  <c:v>82.115801595367842</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>149.94921860566569</c:v>
+                  <c:v>145.20944445433716</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>238.03101855341419</c:v>
+                  <c:v>230.50704957615113</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>350.97122026486437</c:v>
+                  <c:v>339.87730238292903</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>490.47982295764695</c:v>
+                  <c:v>474.97615039289377</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>658.09772083473229</c:v>
+                  <c:v>637.29578138305965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>855.23099253248449</c:v>
+                  <c:v>828.19782897542325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2360,26 +2360,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125"/>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.875"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -2463,18 +2463,18 @@
         <v>8.4000000000000003E-4</v>
       </c>
       <c r="K2">
-        <v>1.74E-4</v>
+        <v>1.685E-4</v>
       </c>
       <c r="L2">
         <f>I2*$K$2</f>
-        <v>1.7399999999999999E-2</v>
+        <v>1.685E-2</v>
       </c>
       <c r="M2">
         <v>10</v>
       </c>
       <c r="N2">
         <f>AVERAGEIF(H:H,M2,L:L)</f>
-        <v>1.7399999999999999E-2</v>
+        <v>1.685E-2</v>
       </c>
       <c r="P2">
         <v>10</v>
@@ -2484,7 +2484,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2519,14 +2519,14 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L57" si="2">I3*$K$2</f>
-        <v>1.7399999999999999E-2</v>
+        <v>1.685E-2</v>
       </c>
       <c r="M3">
         <v>20</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N15" si="3">AVERAGEIF(H:H,M3,L:L)</f>
-        <v>0.15327494467426467</v>
+        <v>0.14843004699777929</v>
       </c>
       <c r="P3">
         <v>20</v>
@@ -2536,7 +2536,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -2571,14 +2571,14 @@
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>1.7399999999999999E-2</v>
+        <v>1.685E-2</v>
       </c>
       <c r="M4">
         <v>40</v>
       </c>
       <c r="N4">
         <f t="shared" si="3"/>
-        <v>1.1447365653717099</v>
+        <v>1.108552363592719</v>
       </c>
       <c r="P4">
         <v>40</v>
@@ -2588,7 +2588,7 @@
         <v>2.3387500000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2623,14 +2623,14 @@
       </c>
       <c r="L5">
         <f t="shared" si="2"/>
-        <v>1.7399999999999999E-2</v>
+        <v>1.685E-2</v>
       </c>
       <c r="M5">
         <v>60</v>
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
-        <v>3.5217445204400701</v>
+        <v>3.410425009736505</v>
       </c>
       <c r="P5">
         <v>60</v>
@@ -2640,7 +2640,7 @@
         <v>5.9280000000000008</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2675,14 +2675,14 @@
       </c>
       <c r="L6">
         <f t="shared" si="2"/>
-        <v>0.15327494467426467</v>
+        <v>0.14843004699777929</v>
       </c>
       <c r="M6">
         <v>80</v>
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
-        <v>7.6755091721393569</v>
+        <v>7.4328925029050668</v>
       </c>
       <c r="P6">
         <v>80</v>
@@ -2692,7 +2692,7 @@
         <v>11.525500000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -2727,14 +2727,14 @@
       </c>
       <c r="L7">
         <f t="shared" si="2"/>
-        <v>0.15327494467426467</v>
+        <v>0.14843004699777929</v>
       </c>
       <c r="M7">
         <v>100</v>
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
-        <v>13.92</v>
+        <v>13.48</v>
       </c>
       <c r="P7">
         <v>100</v>
@@ -2744,7 +2744,7 @@
         <v>18.749000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2779,14 +2779,14 @@
       </c>
       <c r="L8">
         <f t="shared" si="2"/>
-        <v>0.15327494467426467</v>
+        <v>0.14843004699777929</v>
       </c>
       <c r="M8">
         <v>150</v>
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>40.34252528124258</v>
+        <v>39.067330516605601</v>
       </c>
       <c r="P8">
         <v>150</v>
@@ -2796,7 +2796,7 @@
         <v>49.036999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -2831,14 +2831,14 @@
       </c>
       <c r="L9">
         <f t="shared" si="2"/>
-        <v>0.15327494467426467</v>
+        <v>0.14843004699777929</v>
       </c>
       <c r="M9">
         <v>200</v>
       </c>
       <c r="N9">
         <f t="shared" si="3"/>
-        <v>84.796139332902101</v>
+        <v>82.115801595367842</v>
       </c>
       <c r="P9">
         <v>200</v>
@@ -2848,7 +2848,7 @@
         <v>94.117750000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2883,14 +2883,14 @@
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
-        <v>1.1447365653717099</v>
+        <v>1.108552363592719</v>
       </c>
       <c r="M10">
         <v>250</v>
       </c>
       <c r="N10">
         <f t="shared" si="3"/>
-        <v>149.94921860566569</v>
+        <v>145.20944445433716</v>
       </c>
       <c r="P10">
         <v>250</v>
@@ -2900,7 +2900,7 @@
         <v>155.63825</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -2935,14 +2935,14 @@
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
-        <v>1.1447365653717099</v>
+        <v>1.108552363592719</v>
       </c>
       <c r="M11">
         <v>300</v>
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
-        <v>238.03101855341419</v>
+        <v>230.50704957615113</v>
       </c>
       <c r="P11">
         <v>300</v>
@@ -2952,7 +2952,7 @@
         <v>265.86759999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2987,14 +2987,14 @@
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
-        <v>1.1447365653717099</v>
+        <v>1.108552363592719</v>
       </c>
       <c r="M12">
         <v>350</v>
       </c>
       <c r="N12">
         <f t="shared" si="3"/>
-        <v>350.97122026486437</v>
+        <v>339.87730238292903</v>
       </c>
       <c r="P12">
         <v>350</v>
@@ -3004,7 +3004,7 @@
         <v>347.98166666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -3039,14 +3039,14 @@
       </c>
       <c r="L13">
         <f t="shared" si="2"/>
-        <v>1.1447365653717099</v>
+        <v>1.108552363592719</v>
       </c>
       <c r="M13">
         <v>400</v>
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
-        <v>490.47982295764695</v>
+        <v>474.97615039289377</v>
       </c>
       <c r="P13">
         <v>400</v>
@@ -3056,7 +3056,7 @@
         <v>470.81074999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -3091,14 +3091,14 @@
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
-        <v>3.5217445204400701</v>
+        <v>3.410425009736505</v>
       </c>
       <c r="M14">
         <v>450</v>
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
-        <v>658.09772083473229</v>
+        <v>637.29578138305965</v>
       </c>
       <c r="P14">
         <v>450</v>
@@ -3108,7 +3108,7 @@
         <v>618.89699999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -3143,14 +3143,14 @@
       </c>
       <c r="L15">
         <f t="shared" si="2"/>
-        <v>3.5217445204400701</v>
+        <v>3.410425009736505</v>
       </c>
       <c r="M15">
         <v>500</v>
       </c>
       <c r="N15">
         <f t="shared" si="3"/>
-        <v>855.23099253248449</v>
+        <v>828.19782897542325</v>
       </c>
       <c r="P15">
         <v>500</v>
@@ -3160,7 +3160,7 @@
         <v>783.08850000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -3195,10 +3195,10 @@
       </c>
       <c r="L16">
         <f t="shared" si="2"/>
-        <v>3.5217445204400701</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3.410425009736505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -3233,10 +3233,10 @@
       </c>
       <c r="L17">
         <f t="shared" si="2"/>
-        <v>3.5217445204400701</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3.410425009736505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3271,10 +3271,10 @@
       </c>
       <c r="L18">
         <f t="shared" si="2"/>
-        <v>7.6755091721393569</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7.4328925029050668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -3309,10 +3309,10 @@
       </c>
       <c r="L19">
         <f t="shared" si="2"/>
-        <v>7.6755091721393569</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7.4328925029050668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -3347,10 +3347,10 @@
       </c>
       <c r="L20">
         <f t="shared" si="2"/>
-        <v>7.6755091721393569</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7.4328925029050668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3385,10 +3385,10 @@
       </c>
       <c r="L21">
         <f t="shared" si="2"/>
-        <v>7.6755091721393569</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7.4328925029050668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3423,10 +3423,10 @@
       </c>
       <c r="L22">
         <f t="shared" si="2"/>
-        <v>13.92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>13.48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -3461,10 +3461,10 @@
       </c>
       <c r="L23">
         <f t="shared" si="2"/>
-        <v>13.92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <v>13.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -3499,10 +3499,10 @@
       </c>
       <c r="L24">
         <f t="shared" si="2"/>
-        <v>13.92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>13.48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -3537,10 +3537,10 @@
       </c>
       <c r="L25">
         <f t="shared" si="2"/>
-        <v>13.92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>13.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -3575,10 +3575,10 @@
       </c>
       <c r="L26">
         <f t="shared" si="2"/>
-        <v>40.34252528124258</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>39.067330516605601</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3613,10 +3613,10 @@
       </c>
       <c r="L27">
         <f t="shared" si="2"/>
-        <v>40.34252528124258</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>39.067330516605601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -3651,10 +3651,10 @@
       </c>
       <c r="L28">
         <f t="shared" si="2"/>
-        <v>40.34252528124258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>39.067330516605601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -3689,10 +3689,10 @@
       </c>
       <c r="L29">
         <f t="shared" si="2"/>
-        <v>40.34252528124258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <v>39.067330516605601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -3727,10 +3727,10 @@
       </c>
       <c r="L30">
         <f t="shared" si="2"/>
-        <v>84.796139332902101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+        <v>82.115801595367842</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -3765,10 +3765,10 @@
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>84.796139332902101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <v>82.115801595367842</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -3803,10 +3803,10 @@
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
-        <v>84.796139332902101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+        <v>82.115801595367842</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -3841,10 +3841,10 @@
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
-        <v>84.796139332902101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+        <v>82.115801595367842</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -3879,10 +3879,10 @@
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>149.94921860566569</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+        <v>145.20944445433716</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -3917,10 +3917,10 @@
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>149.94921860566569</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+        <v>145.20944445433716</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -3955,10 +3955,10 @@
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>149.94921860566569</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+        <v>145.20944445433716</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -3993,10 +3993,10 @@
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>149.94921860566569</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+        <v>145.20944445433716</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -4031,10 +4031,10 @@
       </c>
       <c r="L38">
         <f t="shared" si="2"/>
-        <v>238.03101855341421</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+        <v>230.5070495761511</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -4069,10 +4069,10 @@
       </c>
       <c r="L39">
         <f t="shared" si="2"/>
-        <v>238.03101855341421</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+        <v>230.5070495761511</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -4107,10 +4107,10 @@
       </c>
       <c r="L40">
         <f t="shared" si="2"/>
-        <v>238.03101855341421</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+        <v>230.5070495761511</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -4145,10 +4145,10 @@
       </c>
       <c r="L41">
         <f t="shared" si="2"/>
-        <v>238.03101855341421</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+        <v>230.5070495761511</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -4183,10 +4183,10 @@
       </c>
       <c r="L42">
         <f t="shared" si="2"/>
-        <v>238.03101855341421</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+        <v>230.5070495761511</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -4221,10 +4221,10 @@
       </c>
       <c r="L43">
         <f t="shared" si="2"/>
-        <v>350.97122026486437</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+        <v>339.87730238292903</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -4259,10 +4259,10 @@
       </c>
       <c r="L44">
         <f t="shared" si="2"/>
-        <v>350.97122026486437</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+        <v>339.87730238292903</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -4297,10 +4297,10 @@
       </c>
       <c r="L45">
         <f t="shared" si="2"/>
-        <v>350.97122026486437</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+        <v>339.87730238292903</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -4335,10 +4335,10 @@
       </c>
       <c r="L46">
         <f t="shared" si="2"/>
-        <v>490.47982295764695</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+        <v>474.97615039289377</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -4373,10 +4373,10 @@
       </c>
       <c r="L47">
         <f t="shared" si="2"/>
-        <v>490.47982295764695</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+        <v>474.97615039289377</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -4411,10 +4411,10 @@
       </c>
       <c r="L48">
         <f t="shared" si="2"/>
-        <v>490.47982295764695</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+        <v>474.97615039289377</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -4449,10 +4449,10 @@
       </c>
       <c r="L49">
         <f t="shared" si="2"/>
-        <v>490.47982295764695</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+        <v>474.97615039289377</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -4487,10 +4487,10 @@
       </c>
       <c r="L50">
         <f t="shared" si="2"/>
-        <v>658.09772083473229</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+        <v>637.29578138305965</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -4525,10 +4525,10 @@
       </c>
       <c r="L51">
         <f t="shared" si="2"/>
-        <v>658.09772083473229</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+        <v>637.29578138305965</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -4563,10 +4563,10 @@
       </c>
       <c r="L52">
         <f t="shared" si="2"/>
-        <v>658.09772083473229</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+        <v>637.29578138305965</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -4601,10 +4601,10 @@
       </c>
       <c r="L53">
         <f t="shared" si="2"/>
-        <v>658.09772083473229</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+        <v>637.29578138305965</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -4639,10 +4639,10 @@
       </c>
       <c r="L54">
         <f t="shared" si="2"/>
-        <v>855.23099253248449</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+        <v>828.19782897542325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -4677,10 +4677,10 @@
       </c>
       <c r="L55">
         <f t="shared" si="2"/>
-        <v>855.23099253248449</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+        <v>828.19782897542325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -4715,10 +4715,10 @@
       </c>
       <c r="L56">
         <f t="shared" si="2"/>
-        <v>855.23099253248449</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+        <v>828.19782897542325</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>45</v>
       </c>
@@ -4753,13 +4753,7 @@
       </c>
       <c r="L57">
         <f t="shared" si="2"/>
-        <v>855.23099253248449</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J58">
-        <f>AVERAGE(J2:J57)</f>
-        <v>2.8372349998266502E-4</v>
+        <v>828.19782897542325</v>
       </c>
     </row>
   </sheetData>

--- a/third assignment/karger.xlsx
+++ b/third assignment/karger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Advanced Algorithm\AdvancedAlgorithms-assignments\third assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A88034-DF14-4683-B470-2DEC750078DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9102189D-722A-46C1-948B-F4348FEEA3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>file</t>
   </si>
@@ -246,12 +246,21 @@
   <si>
     <t>vertices</t>
   </si>
+  <si>
+    <t>Time (s)</t>
+  </si>
+  <si>
+    <t>Discovery Time (s)</t>
+  </si>
+  <si>
+    <t>Rapporto Time/Discovert Time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -382,6 +391,22 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -728,8 +753,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1464,7 +1491,1311 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>EXEUCTION TIME/DISCOVERY</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> TIME</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Execution Time (s)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>karger!$P$2:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>karger!$S$2:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2338.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5928.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11525.500000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18749.000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49037</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94117.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155638.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>265867.59999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>347981.66666666663</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>470810.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>618896.99999999988</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>783088.50000000012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6656-41E1-8F2A-37F9FD09BFB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Discovery Time(s)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>karger!$P$2:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>karger!$R$2:$R$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>30.750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>292.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>616.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>747.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1525.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15804.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4722.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15585.800000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29785.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19676.000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14849.499999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28857.999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6656-41E1-8F2A-37F9FD09BFB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1204925728"/>
+        <c:axId val="1204926544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1204925728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="510"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number of vertices</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1204926544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1204926544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1204925728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr u="none"/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>EXEUCTION TIME/DISCOVERY</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> TIME</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ratio Execution Time/Discovery Time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>karger!$P$2:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>karger!$Q$18:$Q$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.37048192771084343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22989690721649483</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12495991448423303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10404014844804317</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4834497418767068E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1351005386953959E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3569549523828945E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16792262883462472</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0342798123212E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8622412057730999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.559550551034778E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1791739037394547E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.399349164723694E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6851518059580743E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C192-40A6-B170-93546DA230A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1204925728"/>
+        <c:axId val="1204926544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1204925728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="510"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number of vertices</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1204926544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1204926544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1204925728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr u="none"/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2020,18 +3351,1050 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
@@ -2055,6 +4418,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFD8225E-7C8C-4F46-B910-63E433060311}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8FDD497-7CFB-4EE5-B55A-C60FE2D75270}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2360,10 +4799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:AR57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AR9" sqref="AR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2377,9 +4816,11 @@
     <col min="9" max="10" width="11.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2428,8 +4869,14 @@
       <c r="Q1" t="s">
         <v>69</v>
       </c>
+      <c r="R1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -2483,8 +4930,16 @@
         <f>AVERAGEIF(H:H,P2,F:F)</f>
         <v>8.3000000000000004E-2</v>
       </c>
+      <c r="R2">
+        <f>AVERAGEIF(H:H,P2,D:D)*1000</f>
+        <v>30.750000000000004</v>
+      </c>
+      <c r="S2">
+        <f>Q2*1000</f>
+        <v>83</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2535,8 +4990,16 @@
         <f t="shared" ref="Q3:Q15" si="4">AVERAGEIF(H:H,P3,F:F)</f>
         <v>0.48499999999999999</v>
       </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R15" si="5">AVERAGEIF(H:H,P3,D:D)*1000</f>
+        <v>111.5</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S15" si="6">Q3*1000</f>
+        <v>485</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -2587,8 +5050,16 @@
         <f t="shared" si="4"/>
         <v>2.3387500000000001</v>
       </c>
+      <c r="R4">
+        <f t="shared" si="5"/>
+        <v>292.25</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="6"/>
+        <v>2338.75</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2639,8 +5110,16 @@
         <f t="shared" si="4"/>
         <v>5.9280000000000008</v>
       </c>
+      <c r="R5">
+        <f t="shared" si="5"/>
+        <v>616.75</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="6"/>
+        <v>5928.0000000000009</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2691,8 +5170,16 @@
         <f t="shared" si="4"/>
         <v>11.525500000000001</v>
       </c>
+      <c r="R6">
+        <f t="shared" si="5"/>
+        <v>747.25</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="6"/>
+        <v>11525.500000000002</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -2743,8 +5230,16 @@
         <f t="shared" si="4"/>
         <v>18.749000000000002</v>
       </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>1525.25</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="6"/>
+        <v>18749.000000000004</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2795,8 +5290,16 @@
         <f t="shared" si="4"/>
         <v>49.036999999999999</v>
       </c>
+      <c r="R8">
+        <f t="shared" si="5"/>
+        <v>4098</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="6"/>
+        <v>49037</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -2847,8 +5350,17 @@
         <f t="shared" si="4"/>
         <v>94.117750000000001</v>
       </c>
+      <c r="R9">
+        <f t="shared" si="5"/>
+        <v>15804.5</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="6"/>
+        <v>94117.75</v>
+      </c>
+      <c r="AR9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2899,8 +5411,17 @@
         <f t="shared" si="4"/>
         <v>155.63825</v>
       </c>
+      <c r="R10">
+        <f t="shared" si="5"/>
+        <v>4722.5</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="6"/>
+        <v>155638.25</v>
+      </c>
+      <c r="AQ10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -2951,8 +5472,16 @@
         <f t="shared" si="4"/>
         <v>265.86759999999998</v>
       </c>
+      <c r="R11">
+        <f t="shared" si="5"/>
+        <v>15585.800000000001</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="6"/>
+        <v>265867.59999999998</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3003,8 +5532,16 @@
         <f t="shared" si="4"/>
         <v>347.98166666666663</v>
       </c>
+      <c r="R12">
+        <f t="shared" si="5"/>
+        <v>29785.666666666668</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="6"/>
+        <v>347981.66666666663</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -3055,8 +5592,16 @@
         <f t="shared" si="4"/>
         <v>470.81074999999998</v>
       </c>
+      <c r="R13">
+        <f t="shared" si="5"/>
+        <v>19676.000000000004</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="6"/>
+        <v>470810.75</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -3107,8 +5652,16 @@
         <f t="shared" si="4"/>
         <v>618.89699999999993</v>
       </c>
+      <c r="R14">
+        <f t="shared" si="5"/>
+        <v>14849.499999999998</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="6"/>
+        <v>618896.99999999988</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -3159,8 +5712,17 @@
         <f t="shared" si="4"/>
         <v>783.08850000000007</v>
       </c>
+      <c r="R15">
+        <f t="shared" si="5"/>
+        <v>28857.999999999996</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="6"/>
+        <v>783088.50000000012</v>
+      </c>
+      <c r="AJ15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -3198,7 +5760,7 @@
         <v>3.410425009736505</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -3235,8 +5797,11 @@
         <f t="shared" si="2"/>
         <v>3.410425009736505</v>
       </c>
+      <c r="Q17" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3273,8 +5838,12 @@
         <f t="shared" si="2"/>
         <v>7.4328925029050668</v>
       </c>
+      <c r="Q18">
+        <f>R2/S2</f>
+        <v>0.37048192771084343</v>
+      </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -3311,8 +5880,12 @@
         <f t="shared" si="2"/>
         <v>7.4328925029050668</v>
       </c>
+      <c r="Q19">
+        <f t="shared" ref="Q19:Q34" si="7">R3/S3</f>
+        <v>0.22989690721649483</v>
+      </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -3349,8 +5922,12 @@
         <f t="shared" si="2"/>
         <v>7.4328925029050668</v>
       </c>
+      <c r="Q20">
+        <f t="shared" si="7"/>
+        <v>0.12495991448423303</v>
+      </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3387,8 +5964,12 @@
         <f t="shared" si="2"/>
         <v>7.4328925029050668</v>
       </c>
+      <c r="Q21">
+        <f t="shared" si="7"/>
+        <v>0.10404014844804317</v>
+      </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3425,8 +6006,12 @@
         <f t="shared" si="2"/>
         <v>13.48</v>
       </c>
+      <c r="Q22">
+        <f t="shared" si="7"/>
+        <v>6.4834497418767068E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -3463,8 +6048,12 @@
         <f t="shared" si="2"/>
         <v>13.48</v>
       </c>
+      <c r="Q23">
+        <f t="shared" si="7"/>
+        <v>8.1351005386953959E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -3501,8 +6090,12 @@
         <f t="shared" si="2"/>
         <v>13.48</v>
       </c>
+      <c r="Q24">
+        <f t="shared" si="7"/>
+        <v>8.3569549523828945E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -3539,8 +6132,12 @@
         <f t="shared" si="2"/>
         <v>13.48</v>
       </c>
+      <c r="Q25">
+        <f t="shared" si="7"/>
+        <v>0.16792262883462472</v>
+      </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -3577,8 +6174,12 @@
         <f t="shared" si="2"/>
         <v>39.067330516605601</v>
       </c>
+      <c r="Q26">
+        <f t="shared" si="7"/>
+        <v>3.0342798123212E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3615,8 +6216,12 @@
         <f t="shared" si="2"/>
         <v>39.067330516605601</v>
       </c>
+      <c r="Q27">
+        <f t="shared" si="7"/>
+        <v>5.8622412057730999E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -3653,8 +6258,12 @@
         <f t="shared" si="2"/>
         <v>39.067330516605601</v>
       </c>
+      <c r="Q28">
+        <f t="shared" si="7"/>
+        <v>8.559550551034778E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -3691,8 +6300,12 @@
         <f t="shared" si="2"/>
         <v>39.067330516605601</v>
       </c>
+      <c r="Q29">
+        <f t="shared" si="7"/>
+        <v>4.1791739037394547E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -3729,8 +6342,12 @@
         <f t="shared" si="2"/>
         <v>82.115801595367842</v>
       </c>
+      <c r="Q30">
+        <f t="shared" si="7"/>
+        <v>2.399349164723694E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -3767,8 +6384,12 @@
         <f t="shared" si="2"/>
         <v>82.115801595367842</v>
       </c>
+      <c r="Q31">
+        <f t="shared" si="7"/>
+        <v>3.6851518059580743E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -4761,6 +7382,7 @@
     <sortCondition ref="A2:A58"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/third assignment/karger.xlsx
+++ b/third assignment/karger.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Advanced Algorithm\AdvancedAlgorithms-assignments\third assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davide/Sviluppo/Advanced Algorithm/third assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9102189D-722A-46C1-948B-F4348FEEA3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BC78EB-294B-D940-AD26-911E9FD8232A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3660" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="karger" sheetId="1" r:id="rId1"/>
@@ -978,46 +978,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>8.3000000000000004E-2</c:v>
+                  <c:v>7.5749999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48499999999999999</c:v>
+                  <c:v>0.42375000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3387500000000001</c:v>
+                  <c:v>2.0089999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9280000000000008</c:v>
+                  <c:v>5.0465</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.525500000000001</c:v>
+                  <c:v>9.7782499999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.749000000000002</c:v>
+                  <c:v>15.776250000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.036999999999999</c:v>
+                  <c:v>41.116749999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94.117750000000001</c:v>
+                  <c:v>79.280750000000012</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>155.63825</c:v>
+                  <c:v>131.40825000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>265.86759999999998</c:v>
+                  <c:v>226.02759999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>347.98166666666663</c:v>
+                  <c:v>298.96600000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>470.81074999999998</c:v>
+                  <c:v>408.09</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>618.89699999999993</c:v>
+                  <c:v>535.28324999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>783.08850000000007</c:v>
+                  <c:v>664.1155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1659,46 +1659,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>83</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>485</c:v>
+                  <c:v>423.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2338.75</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5928.0000000000009</c:v>
+                  <c:v>5046.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11525.500000000002</c:v>
+                  <c:v>9778.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18749.000000000004</c:v>
+                  <c:v>15776.250000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49037</c:v>
+                  <c:v>41116.749999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94117.75</c:v>
+                  <c:v>79280.750000000015</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>155638.25</c:v>
+                  <c:v>131408.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>265867.59999999998</c:v>
+                  <c:v>226027.59999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>347981.66666666663</c:v>
+                  <c:v>298966.00000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>470810.75</c:v>
+                  <c:v>408090</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>618896.99999999988</c:v>
+                  <c:v>535283.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>783088.50000000012</c:v>
+                  <c:v>664115.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1798,46 +1798,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>30.750000000000004</c:v>
+                  <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111.5</c:v>
+                  <c:v>106.00000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>292.25</c:v>
+                  <c:v>216.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>616.75</c:v>
+                  <c:v>715.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>747.25</c:v>
+                  <c:v>1728.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1525.25</c:v>
+                  <c:v>1400.0000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4098</c:v>
+                  <c:v>2996.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15804.5</c:v>
+                  <c:v>3140.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4722.5</c:v>
+                  <c:v>5421.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15585.800000000001</c:v>
+                  <c:v>12316.999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29785.666666666668</c:v>
+                  <c:v>10657.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19676.000000000004</c:v>
+                  <c:v>13051.499999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14849.499999999998</c:v>
+                  <c:v>24462.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28857.999999999996</c:v>
+                  <c:v>15270.750000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2340,46 +2340,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.37048192771084343</c:v>
+                  <c:v>0.38943894389438943</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22989690721649483</c:v>
+                  <c:v>0.25014749262536878</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12495991448423303</c:v>
+                  <c:v>0.10776505724240916</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10404014844804317</c:v>
+                  <c:v>0.14178143267611215</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4834497418767068E-2</c:v>
+                  <c:v>0.17679543885664611</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.1351005386953959E-2</c:v>
+                  <c:v>8.8740987243483088E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.3569549523828945E-2</c:v>
+                  <c:v>7.2877841755488962E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16792262883462472</c:v>
+                  <c:v>3.9612390145148724E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0342798123212E-2</c:v>
+                  <c:v>4.1256922605696369E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8622412057730999E-2</c:v>
+                  <c:v>5.4493345060514731E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.559550551034778E-2</c:v>
+                  <c:v>3.5648423789550202E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.1791739037394547E-2</c:v>
+                  <c:v>3.1981915753877814E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.399349164723694E-2</c:v>
+                  <c:v>4.570057067916846E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.6851518059580743E-2</c:v>
+                  <c:v>2.2994117740061784E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4801,26 +4801,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AR9" sqref="AR9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.875"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -4887,16 +4887,16 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>3.5000000000000003E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>8.4000000000000005E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="G2">
-        <v>11921</v>
+        <v>13168</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="J2">
         <f>F2/I2</f>
-        <v>8.4000000000000003E-4</v>
+        <v>7.5999999999999993E-4</v>
       </c>
       <c r="K2">
         <v>1.685E-4</v>
@@ -4928,18 +4928,18 @@
       </c>
       <c r="Q2">
         <f>AVERAGEIF(H:H,P2,F:F)</f>
-        <v>8.3000000000000004E-2</v>
+        <v>7.5749999999999998E-2</v>
       </c>
       <c r="R2">
         <f>AVERAGEIF(H:H,P2,D:D)*1000</f>
-        <v>30.750000000000004</v>
+        <v>29.5</v>
       </c>
       <c r="S2">
         <f>Q2*1000</f>
-        <v>83</v>
+        <v>75.75</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4950,16 +4950,16 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>0.01</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>8.2000000000000003E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="G3">
-        <v>12267</v>
+        <v>13185</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J57" si="1">F3/I3</f>
-        <v>8.1999999999999998E-4</v>
+        <v>7.5999999999999993E-4</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L57" si="2">I3*$K$2</f>
@@ -4988,18 +4988,18 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q15" si="4">AVERAGEIF(H:H,P3,F:F)</f>
-        <v>0.48499999999999999</v>
+        <v>0.42375000000000002</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R15" si="5">AVERAGEIF(H:H,P3,D:D)*1000</f>
-        <v>111.5</v>
+        <v>106.00000000000001</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S15" si="6">Q3*1000</f>
-        <v>485</v>
+        <v>423.75</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -5010,16 +5010,16 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>3.4000000000000002E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>8.3000000000000004E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="G4">
-        <v>12003</v>
+        <v>13270</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -5030,7 +5030,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>8.3000000000000001E-4</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
@@ -5048,18 +5048,18 @@
       </c>
       <c r="Q4">
         <f t="shared" si="4"/>
-        <v>2.3387500000000001</v>
+        <v>2.0089999999999999</v>
       </c>
       <c r="R4">
         <f t="shared" si="5"/>
-        <v>292.25</v>
+        <v>216.5</v>
       </c>
       <c r="S4">
         <f t="shared" si="6"/>
-        <v>2338.75</v>
+        <v>2009</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -5070,16 +5070,16 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>4.3999999999999997E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>8.3000000000000004E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="G5">
-        <v>12076</v>
+        <v>13220</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>8.3000000000000001E-4</v>
+        <v>7.5999999999999993E-4</v>
       </c>
       <c r="L5">
         <f t="shared" si="2"/>
@@ -5108,18 +5108,18 @@
       </c>
       <c r="Q5">
         <f t="shared" si="4"/>
-        <v>5.9280000000000008</v>
+        <v>5.0465</v>
       </c>
       <c r="R5">
         <f t="shared" si="5"/>
-        <v>616.75</v>
+        <v>715.5</v>
       </c>
       <c r="S5">
         <f t="shared" si="6"/>
-        <v>5928.0000000000009</v>
+        <v>5046.5</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -5130,16 +5130,16 @@
         <v>19</v>
       </c>
       <c r="D6">
-        <v>2.7E-2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>0.48499999999999999</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="G6">
-        <v>2064</v>
+        <v>2348</v>
       </c>
       <c r="H6">
         <v>20</v>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>5.5057922336454338E-4</v>
+        <v>4.836015446459701E-4</v>
       </c>
       <c r="L6">
         <f t="shared" si="2"/>
@@ -5168,18 +5168,18 @@
       </c>
       <c r="Q6">
         <f t="shared" si="4"/>
-        <v>11.525500000000001</v>
+        <v>9.7782499999999999</v>
       </c>
       <c r="R6">
         <f t="shared" si="5"/>
-        <v>747.25</v>
+        <v>1728.75</v>
       </c>
       <c r="S6">
         <f t="shared" si="6"/>
-        <v>11525.500000000002</v>
+        <v>9778.25</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -5190,16 +5190,16 @@
         <v>19</v>
       </c>
       <c r="D7">
-        <v>7.9000000000000001E-2</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>0.48499999999999999</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="G7">
-        <v>2063</v>
+        <v>2369</v>
       </c>
       <c r="H7">
         <v>20</v>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>5.5057922336454338E-4</v>
+        <v>4.7906068507182952E-4</v>
       </c>
       <c r="L7">
         <f t="shared" si="2"/>
@@ -5228,18 +5228,18 @@
       </c>
       <c r="Q7">
         <f t="shared" si="4"/>
-        <v>18.749000000000002</v>
+        <v>15.776250000000001</v>
       </c>
       <c r="R7">
         <f t="shared" si="5"/>
-        <v>1525.25</v>
+        <v>1400.0000000000002</v>
       </c>
       <c r="S7">
         <f t="shared" si="6"/>
-        <v>18749.000000000004</v>
+        <v>15776.250000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5250,16 +5250,16 @@
         <v>19</v>
       </c>
       <c r="D8">
-        <v>7.9000000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.48299999999999998</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="G8">
-        <v>2071</v>
+        <v>2372</v>
       </c>
       <c r="H8">
         <v>20</v>
@@ -5270,7 +5270,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>5.4830879357747311E-4</v>
+        <v>4.7906068507182952E-4</v>
       </c>
       <c r="L8">
         <f t="shared" si="2"/>
@@ -5288,18 +5288,18 @@
       </c>
       <c r="Q8">
         <f t="shared" si="4"/>
-        <v>49.036999999999999</v>
+        <v>41.116749999999996</v>
       </c>
       <c r="R8">
         <f t="shared" si="5"/>
-        <v>4098</v>
+        <v>2996.5</v>
       </c>
       <c r="S8">
         <f t="shared" si="6"/>
-        <v>49037</v>
+        <v>41116.749999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -5310,16 +5310,16 @@
         <v>19</v>
       </c>
       <c r="D9">
-        <v>0.26100000000000001</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.48699999999999999</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G9">
-        <v>2055</v>
+        <v>2355</v>
       </c>
       <c r="H9">
         <v>20</v>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>5.5284965315161364E-4</v>
+        <v>4.8246632975243491E-4</v>
       </c>
       <c r="L9">
         <f t="shared" si="2"/>
@@ -5348,19 +5348,19 @@
       </c>
       <c r="Q9">
         <f t="shared" si="4"/>
-        <v>94.117750000000001</v>
+        <v>79.280750000000012</v>
       </c>
       <c r="R9">
         <f t="shared" si="5"/>
-        <v>15804.5</v>
+        <v>3140.5</v>
       </c>
       <c r="S9">
         <f t="shared" si="6"/>
-        <v>94117.75</v>
+        <v>79280.750000000015</v>
       </c>
       <c r="AR9" s="2"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -5371,16 +5371,16 @@
         <v>28</v>
       </c>
       <c r="D10">
-        <v>0.52200000000000002</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>2.339</v>
+        <v>2.0070000000000001</v>
       </c>
       <c r="G10">
-        <v>428</v>
+        <v>499</v>
       </c>
       <c r="H10">
         <v>40</v>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>3.5552808594687172E-4</v>
+        <v>3.0506407374748681E-4</v>
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
@@ -5409,19 +5409,19 @@
       </c>
       <c r="Q10">
         <f t="shared" si="4"/>
-        <v>155.63825</v>
+        <v>131.40825000000001</v>
       </c>
       <c r="R10">
         <f t="shared" si="5"/>
-        <v>4722.5</v>
+        <v>5421.5</v>
       </c>
       <c r="S10">
         <f t="shared" si="6"/>
-        <v>155638.25</v>
+        <v>131408.25</v>
       </c>
       <c r="AQ10" s="1"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -5432,16 +5432,16 @@
         <v>28</v>
       </c>
       <c r="D11">
-        <v>9.9000000000000005E-2</v>
+        <v>0.152</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>2.3380000000000001</v>
+        <v>2.0070000000000001</v>
       </c>
       <c r="G11">
-        <v>428</v>
+        <v>499</v>
       </c>
       <c r="H11">
         <v>40</v>
@@ -5452,7 +5452,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>3.5537608591012664E-4</v>
+        <v>3.0506407374748681E-4</v>
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
@@ -5470,18 +5470,18 @@
       </c>
       <c r="Q11">
         <f t="shared" si="4"/>
-        <v>265.86759999999998</v>
+        <v>226.02759999999998</v>
       </c>
       <c r="R11">
         <f t="shared" si="5"/>
-        <v>15585.800000000001</v>
+        <v>12316.999999999998</v>
       </c>
       <c r="S11">
         <f t="shared" si="6"/>
-        <v>265867.59999999998</v>
+        <v>226027.59999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -5492,16 +5492,16 @@
         <v>28</v>
       </c>
       <c r="D12">
-        <v>0.17699999999999999</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>2.3290000000000002</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="G12">
-        <v>430</v>
+        <v>499</v>
       </c>
       <c r="H12">
         <v>40</v>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>3.540080855794204E-4</v>
+        <v>3.0491207371074162E-4</v>
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
@@ -5530,18 +5530,18 @@
       </c>
       <c r="Q12">
         <f t="shared" si="4"/>
-        <v>347.98166666666663</v>
+        <v>298.96600000000007</v>
       </c>
       <c r="R12">
         <f t="shared" si="5"/>
-        <v>29785.666666666668</v>
+        <v>10657.666666666668</v>
       </c>
       <c r="S12">
         <f t="shared" si="6"/>
-        <v>347981.66666666663</v>
+        <v>298966.00000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -5552,16 +5552,16 @@
         <v>28</v>
       </c>
       <c r="D13">
-        <v>0.371</v>
+        <v>0.222</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>2.3490000000000002</v>
+        <v>2.016</v>
       </c>
       <c r="G13">
-        <v>426</v>
+        <v>496</v>
       </c>
       <c r="H13">
         <v>40</v>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>3.5704808631432309E-4</v>
+        <v>3.06432074078193E-4</v>
       </c>
       <c r="L13">
         <f t="shared" si="2"/>
@@ -5590,18 +5590,18 @@
       </c>
       <c r="Q13">
         <f t="shared" si="4"/>
-        <v>470.81074999999998</v>
+        <v>408.09</v>
       </c>
       <c r="R13">
         <f t="shared" si="5"/>
-        <v>19676.000000000004</v>
+        <v>13051.499999999998</v>
       </c>
       <c r="S13">
         <f t="shared" si="6"/>
-        <v>470810.75</v>
+        <v>408090</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -5612,16 +5612,16 @@
         <v>35</v>
       </c>
       <c r="D14">
-        <v>0.18</v>
+        <v>0.31</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>5.9260000000000002</v>
+        <v>5.0629999999999997</v>
       </c>
       <c r="G14">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="H14">
         <v>60</v>
@@ -5632,7 +5632,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>2.9278784818586239E-4</v>
+        <v>2.5014932085133668E-4</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
@@ -5650,18 +5650,18 @@
       </c>
       <c r="Q14">
         <f t="shared" si="4"/>
-        <v>618.89699999999993</v>
+        <v>535.28324999999995</v>
       </c>
       <c r="R14">
         <f t="shared" si="5"/>
-        <v>14849.499999999998</v>
+        <v>24462.75</v>
       </c>
       <c r="S14">
         <f t="shared" si="6"/>
-        <v>618896.99999999988</v>
+        <v>535283.25</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -5672,16 +5672,16 @@
         <v>35</v>
       </c>
       <c r="D15">
-        <v>0.186</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>5.9210000000000003</v>
+        <v>5.0430000000000001</v>
       </c>
       <c r="G15">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="H15">
         <v>60</v>
@@ -5692,7 +5692,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>2.925408115269138E-4</v>
+        <v>2.4916117421554235E-4</v>
       </c>
       <c r="L15">
         <f t="shared" si="2"/>
@@ -5710,19 +5710,19 @@
       </c>
       <c r="Q15">
         <f t="shared" si="4"/>
-        <v>783.08850000000007</v>
+        <v>664.1155</v>
       </c>
       <c r="R15">
         <f t="shared" si="5"/>
-        <v>28857.999999999996</v>
+        <v>15270.750000000002</v>
       </c>
       <c r="S15">
         <f t="shared" si="6"/>
-        <v>783088.50000000012</v>
+        <v>664115.5</v>
       </c>
       <c r="AJ15" s="1"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -5733,16 +5733,16 @@
         <v>35</v>
       </c>
       <c r="D16">
-        <v>1.925</v>
+        <v>1.7190000000000001</v>
       </c>
       <c r="E16">
         <v>11</v>
       </c>
       <c r="F16">
-        <v>5.9329999999999998</v>
+        <v>5.0309999999999997</v>
       </c>
       <c r="G16">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="H16">
         <v>60</v>
@@ -5753,14 +5753,14 @@
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>2.9313369950839039E-4</v>
+        <v>2.4856828623406576E-4</v>
       </c>
       <c r="L16">
         <f t="shared" si="2"/>
         <v>3.410425009736505</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -5771,16 +5771,16 @@
         <v>35</v>
       </c>
       <c r="D17">
-        <v>0.17599999999999999</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>5.9320000000000004</v>
+        <v>5.0490000000000004</v>
       </c>
       <c r="G17">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="H17">
         <v>60</v>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>2.9308429217660072E-4</v>
+        <v>2.4945761820628068E-4</v>
       </c>
       <c r="L17">
         <f t="shared" si="2"/>
@@ -5801,7 +5801,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -5812,16 +5812,16 @@
         <v>40</v>
       </c>
       <c r="D18">
-        <v>1.544</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>11.512</v>
+        <v>9.6829999999999998</v>
       </c>
       <c r="G18">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="H18">
         <v>80</v>
@@ -5832,7 +5832,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>2.6097135122590039E-4</v>
+        <v>2.1950882504520445E-4</v>
       </c>
       <c r="L18">
         <f t="shared" si="2"/>
@@ -5840,10 +5840,10 @@
       </c>
       <c r="Q18">
         <f>R2/S2</f>
-        <v>0.37048192771084343</v>
+        <v>0.38943894389438943</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -5854,16 +5854,16 @@
         <v>40</v>
       </c>
       <c r="D19">
-        <v>0.312</v>
+        <v>3.3940000000000001</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F19">
-        <v>11.523999999999999</v>
+        <v>9.7910000000000004</v>
       </c>
       <c r="G19">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="H19">
         <v>80</v>
@@ -5874,18 +5874,18 @@
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>2.6124338529597604E-4</v>
+        <v>2.2195713167588523E-4</v>
       </c>
       <c r="L19">
         <f t="shared" si="2"/>
         <v>7.4328925029050668</v>
       </c>
       <c r="Q19">
-        <f t="shared" ref="Q19:Q34" si="7">R3/S3</f>
-        <v>0.22989690721649483</v>
+        <f t="shared" ref="Q19:Q31" si="7">R3/S3</f>
+        <v>0.25014749262536878</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -5896,16 +5896,16 @@
         <v>40</v>
       </c>
       <c r="D20">
-        <v>0.57199999999999995</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>11.512</v>
+        <v>9.7929999999999993</v>
       </c>
       <c r="G20">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="H20">
         <v>80</v>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>2.6097135122590039E-4</v>
+        <v>2.2200247068756448E-4</v>
       </c>
       <c r="L20">
         <f t="shared" si="2"/>
@@ -5924,10 +5924,10 @@
       </c>
       <c r="Q20">
         <f t="shared" si="7"/>
-        <v>0.12495991448423303</v>
+        <v>0.10776505724240916</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -5938,16 +5938,16 @@
         <v>40</v>
       </c>
       <c r="D21">
-        <v>0.56100000000000005</v>
+        <v>1.8080000000000001</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F21">
-        <v>11.554</v>
+        <v>9.8460000000000001</v>
       </c>
       <c r="G21">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="H21">
         <v>80</v>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>2.6192347047116518E-4</v>
+        <v>2.2320395449706526E-4</v>
       </c>
       <c r="L21">
         <f t="shared" si="2"/>
@@ -5966,10 +5966,10 @@
       </c>
       <c r="Q21">
         <f t="shared" si="7"/>
-        <v>0.10404014844804317</v>
+        <v>0.14178143267611215</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -5980,16 +5980,16 @@
         <v>44</v>
       </c>
       <c r="D22">
-        <v>0.45600000000000002</v>
+        <v>1.6739999999999999</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>18.724</v>
+        <v>15.714</v>
       </c>
       <c r="G22">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H22">
         <v>100</v>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>2.3405E-4</v>
+        <v>1.9642500000000002E-4</v>
       </c>
       <c r="L22">
         <f t="shared" si="2"/>
@@ -6008,10 +6008,10 @@
       </c>
       <c r="Q22">
         <f t="shared" si="7"/>
-        <v>6.4834497418767068E-2</v>
+        <v>0.17679543885664611</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -6022,16 +6022,16 @@
         <v>44</v>
       </c>
       <c r="D23">
-        <v>2.3069999999999999</v>
+        <v>2.4670000000000001</v>
       </c>
       <c r="E23">
         <v>5</v>
       </c>
       <c r="F23">
-        <v>18.631</v>
+        <v>15.834</v>
       </c>
       <c r="G23">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H23">
         <v>100</v>
@@ -6042,7 +6042,7 @@
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>2.3288750000000002E-4</v>
+        <v>1.97925E-4</v>
       </c>
       <c r="L23">
         <f t="shared" si="2"/>
@@ -6050,10 +6050,10 @@
       </c>
       <c r="Q23">
         <f t="shared" si="7"/>
-        <v>8.1351005386953959E-2</v>
+        <v>8.8740987243483088E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -6064,16 +6064,16 @@
         <v>44</v>
       </c>
       <c r="D24">
-        <v>2.157</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>18.771000000000001</v>
+        <v>15.78</v>
       </c>
       <c r="G24">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H24">
         <v>100</v>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>2.346375E-4</v>
+        <v>1.9725E-4</v>
       </c>
       <c r="L24">
         <f t="shared" si="2"/>
@@ -6092,10 +6092,10 @@
       </c>
       <c r="Q24">
         <f t="shared" si="7"/>
-        <v>8.3569549523828945E-2</v>
+        <v>7.2877841755488962E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -6106,16 +6106,16 @@
         <v>44</v>
       </c>
       <c r="D25">
-        <v>1.181</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>18.87</v>
+        <v>15.776999999999999</v>
       </c>
       <c r="G25">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H25">
         <v>100</v>
@@ -6126,7 +6126,7 @@
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
-        <v>2.35875E-4</v>
+        <v>1.972125E-4</v>
       </c>
       <c r="L25">
         <f t="shared" si="2"/>
@@ -6134,10 +6134,10 @@
       </c>
       <c r="Q25">
         <f t="shared" si="7"/>
-        <v>0.16792262883462472</v>
+        <v>3.9612390145148724E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -6148,16 +6148,16 @@
         <v>52</v>
       </c>
       <c r="D26">
-        <v>6.7839999999999998</v>
+        <v>3.988</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F26">
-        <v>50.835999999999999</v>
+        <v>42.012</v>
       </c>
       <c r="G26">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H26">
         <v>150</v>
@@ -6168,7 +6168,7 @@
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
-        <v>2.1925905575655014E-4</v>
+        <v>1.8120055571729061E-4</v>
       </c>
       <c r="L26">
         <f t="shared" si="2"/>
@@ -6176,10 +6176,10 @@
       </c>
       <c r="Q26">
         <f t="shared" si="7"/>
-        <v>3.0342798123212E-2</v>
+        <v>4.1256922605696369E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -6190,16 +6190,16 @@
         <v>52</v>
       </c>
       <c r="D27">
-        <v>2.7989999999999999</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>48.408999999999999</v>
+        <v>40.634999999999998</v>
       </c>
       <c r="G27">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H27">
         <v>150</v>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>2.0879124301909741E-4</v>
+        <v>1.7526146295277785E-4</v>
       </c>
       <c r="L27">
         <f t="shared" si="2"/>
@@ -6218,10 +6218,10 @@
       </c>
       <c r="Q27">
         <f t="shared" si="7"/>
-        <v>5.8622412057730999E-2</v>
+        <v>5.4493345060514731E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -6232,16 +6232,16 @@
         <v>52</v>
       </c>
       <c r="D28">
-        <v>0.95899999999999996</v>
+        <v>1.77</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>48.313000000000002</v>
+        <v>40.715000000000003</v>
       </c>
       <c r="G28">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H28">
         <v>150</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
-        <v>2.0837718862157147E-4</v>
+        <v>1.7560650828404951E-4</v>
       </c>
       <c r="L28">
         <f t="shared" si="2"/>
@@ -6260,10 +6260,10 @@
       </c>
       <c r="Q28">
         <f t="shared" si="7"/>
-        <v>8.559550551034778E-2</v>
+        <v>3.5648423789550202E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -6274,16 +6274,16 @@
         <v>52</v>
       </c>
       <c r="D29">
-        <v>5.85</v>
+        <v>5.45</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F29">
-        <v>48.59</v>
+        <v>41.104999999999997</v>
       </c>
       <c r="G29">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H29">
         <v>150</v>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
-        <v>2.0957190808109947E-4</v>
+        <v>1.772886042739986E-4</v>
       </c>
       <c r="L29">
         <f t="shared" si="2"/>
@@ -6302,10 +6302,10 @@
       </c>
       <c r="Q29">
         <f t="shared" si="7"/>
-        <v>4.1791739037394547E-2</v>
+        <v>3.1981915753877814E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -6316,16 +6316,16 @@
         <v>58</v>
       </c>
       <c r="D30">
-        <v>3.456</v>
+        <v>2.871</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
       <c r="F30">
-        <v>93.942999999999998</v>
+        <v>78.632000000000005</v>
       </c>
       <c r="G30">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H30">
         <v>200</v>
@@ -6336,7 +6336,7 @@
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>1.9276917709456956E-4</v>
+        <v>1.6135130806233775E-4</v>
       </c>
       <c r="L30">
         <f t="shared" si="2"/>
@@ -6344,10 +6344,10 @@
       </c>
       <c r="Q30">
         <f t="shared" si="7"/>
-        <v>2.399349164723694E-2</v>
+        <v>4.570057067916846E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -6358,16 +6358,16 @@
         <v>58</v>
       </c>
       <c r="D31">
-        <v>15.205</v>
+        <v>4.165</v>
       </c>
       <c r="E31">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>93.763000000000005</v>
+        <v>78.509</v>
       </c>
       <c r="G31">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H31">
         <v>200</v>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="J31">
         <f t="shared" si="1"/>
-        <v>1.923998206563355E-4</v>
+        <v>1.6109891449621113E-4</v>
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
@@ -6386,10 +6386,10 @@
       </c>
       <c r="Q31">
         <f t="shared" si="7"/>
-        <v>3.6851518059580743E-2</v>
+        <v>2.2994117740061784E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -6400,16 +6400,16 @@
         <v>58</v>
       </c>
       <c r="D32">
-        <v>4.9370000000000003</v>
+        <v>1.3660000000000001</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>93.635000000000005</v>
+        <v>80.123999999999995</v>
       </c>
       <c r="G32">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H32">
         <v>200</v>
@@ -6420,14 +6420,14 @@
       </c>
       <c r="J32">
         <f t="shared" si="1"/>
-        <v>1.9213716718914685E-4</v>
+        <v>1.6441286253925563E-4</v>
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
         <v>82.115801595367842</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -6438,16 +6438,16 @@
         <v>58</v>
       </c>
       <c r="D33">
-        <v>39.619999999999997</v>
+        <v>4.16</v>
       </c>
       <c r="E33">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>95.13</v>
+        <v>79.858000000000004</v>
       </c>
       <c r="G33">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H33">
         <v>200</v>
@@ -6458,14 +6458,14 @@
       </c>
       <c r="J33">
         <f t="shared" si="1"/>
-        <v>1.9520487760670195E-4</v>
+        <v>1.638670358027542E-4</v>
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
         <v>82.115801595367842</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -6476,16 +6476,16 @@
         <v>63</v>
       </c>
       <c r="D34">
-        <v>2.5169999999999999</v>
+        <v>4.9219999999999997</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>155.977</v>
+        <v>132.69800000000001</v>
       </c>
       <c r="G34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H34">
         <v>250</v>
@@ -6496,14 +6496,14 @@
       </c>
       <c r="J34">
         <f t="shared" si="1"/>
-        <v>1.8099459438579923E-4</v>
+        <v>1.5398180940655857E-4</v>
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
         <v>145.20944445433716</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -6514,16 +6514,16 @@
         <v>63</v>
       </c>
       <c r="D35">
-        <v>5.4219999999999997</v>
+        <v>10.476000000000001</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F35">
-        <v>155.53399999999999</v>
+        <v>131.40799999999999</v>
       </c>
       <c r="G35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H35">
         <v>250</v>
@@ -6534,14 +6534,14 @@
       </c>
       <c r="J35">
         <f t="shared" si="1"/>
-        <v>1.804805403565968E-4</v>
+        <v>1.5248490263980653E-4</v>
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
         <v>145.20944445433716</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -6552,16 +6552,16 @@
         <v>63</v>
       </c>
       <c r="D36">
-        <v>8.4879999999999995</v>
+        <v>2.2690000000000001</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>156.07</v>
+        <v>131.02799999999999</v>
       </c>
       <c r="G36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H36">
         <v>250</v>
@@ -6572,14 +6572,14 @@
       </c>
       <c r="J36">
         <f t="shared" si="1"/>
-        <v>1.8110251092014646E-4</v>
+        <v>1.5204395335967802E-4</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
         <v>145.20944445433716</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -6590,16 +6590,16 @@
         <v>63</v>
       </c>
       <c r="D37">
-        <v>2.4630000000000001</v>
+        <v>4.0190000000000001</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>154.97200000000001</v>
+        <v>130.499</v>
       </c>
       <c r="G37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H37">
         <v>250</v>
@@ -6610,14 +6610,14 @@
       </c>
       <c r="J37">
         <f t="shared" si="1"/>
-        <v>1.798283995791436E-4</v>
+        <v>1.5143010554602546E-4</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
         <v>145.20944445433716</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -6628,13 +6628,13 @@
         <v>68</v>
       </c>
       <c r="D38">
-        <v>4.5869999999999997</v>
+        <v>31.388999999999999</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F38">
-        <v>246.881</v>
+        <v>207.02500000000001</v>
       </c>
       <c r="G38">
         <v>5</v>
@@ -6648,14 +6648,14 @@
       </c>
       <c r="J38">
         <f t="shared" si="1"/>
-        <v>1.8046931135725226E-4</v>
+        <v>1.5133468830624938E-4</v>
       </c>
       <c r="L38">
         <f t="shared" si="2"/>
         <v>230.5070495761511</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -6666,13 +6666,13 @@
         <v>68</v>
       </c>
       <c r="D39">
-        <v>4.3410000000000002</v>
+        <v>3.827</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>244.52099999999999</v>
+        <v>208.501</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -6686,14 +6686,14 @@
       </c>
       <c r="J39">
         <f t="shared" si="1"/>
-        <v>1.7874415804532013E-4</v>
+        <v>1.5241364012337302E-4</v>
       </c>
       <c r="L39">
         <f t="shared" si="2"/>
         <v>230.5070495761511</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -6704,13 +6704,13 @@
         <v>68</v>
       </c>
       <c r="D40">
-        <v>15.901999999999999</v>
+        <v>3.2909999999999999</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>243.696</v>
+        <v>208.238</v>
       </c>
       <c r="G40">
         <v>5</v>
@@ -6724,14 +6724,14 @@
       </c>
       <c r="J40">
         <f t="shared" si="1"/>
-        <v>1.7814108538330997E-4</v>
+        <v>1.5222138786869584E-4</v>
       </c>
       <c r="L40">
         <f t="shared" si="2"/>
         <v>230.5070495761511</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -6742,13 +6742,13 @@
         <v>68</v>
       </c>
       <c r="D41">
-        <v>22.585999999999999</v>
+        <v>9.952</v>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F41">
-        <v>243.21600000000001</v>
+        <v>206.13499999999999</v>
       </c>
       <c r="G41">
         <v>5</v>
@@ -6762,14 +6762,14 @@
       </c>
       <c r="J41">
         <f t="shared" si="1"/>
-        <v>1.7779020674359497E-4</v>
+        <v>1.5068410082844447E-4</v>
       </c>
       <c r="L41">
         <f t="shared" si="2"/>
         <v>230.5070495761511</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -6780,16 +6780,16 @@
         <v>71</v>
       </c>
       <c r="D42">
-        <v>30.513000000000002</v>
+        <v>13.125999999999999</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F42">
-        <v>351.024</v>
+        <v>300.23899999999998</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H42">
         <v>300</v>
@@ -6800,14 +6800,14 @@
       </c>
       <c r="J42">
         <f t="shared" si="1"/>
-        <v>2.5659754922358595E-4</v>
+        <v>2.1947385814457193E-4</v>
       </c>
       <c r="L42">
         <f t="shared" si="2"/>
         <v>230.5070495761511</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -6818,16 +6818,16 @@
         <v>71</v>
       </c>
       <c r="D43">
-        <v>24.189</v>
+        <v>9.4410000000000007</v>
       </c>
       <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>299.20800000000003</v>
+      </c>
+      <c r="G43">
         <v>4</v>
-      </c>
-      <c r="F43">
-        <v>350.54300000000001</v>
-      </c>
-      <c r="G43">
-        <v>3</v>
       </c>
       <c r="H43">
         <v>350</v>
@@ -6838,14 +6838,14 @@
       </c>
       <c r="J43">
         <f t="shared" si="1"/>
-        <v>1.7378770246167144E-4</v>
+        <v>1.4833749605084625E-4</v>
       </c>
       <c r="L43">
         <f t="shared" si="2"/>
         <v>339.87730238292903</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -6856,16 +6856,16 @@
         <v>71</v>
       </c>
       <c r="D44">
-        <v>49.890999999999998</v>
+        <v>17.863</v>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F44">
-        <v>346.709</v>
+        <v>298.98200000000003</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H44">
         <v>350</v>
@@ -6876,14 +6876,14 @@
       </c>
       <c r="J44">
         <f t="shared" si="1"/>
-        <v>1.7188693122607965E-4</v>
+        <v>1.4822545267597828E-4</v>
       </c>
       <c r="L44">
         <f t="shared" si="2"/>
         <v>339.87730238292903</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -6894,16 +6894,16 @@
         <v>71</v>
       </c>
       <c r="D45">
-        <v>15.276999999999999</v>
+        <v>4.6689999999999996</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>346.69299999999998</v>
+        <v>298.70800000000003</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H45">
         <v>350</v>
@@ -6914,14 +6914,14 @@
       </c>
       <c r="J45">
         <f t="shared" si="1"/>
-        <v>1.7187899895175271E-4</v>
+        <v>1.4808961247812953E-4</v>
       </c>
       <c r="L45">
         <f t="shared" si="2"/>
         <v>339.87730238292903</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -6932,13 +6932,13 @@
         <v>75</v>
       </c>
       <c r="D46">
-        <v>6.3620000000000001</v>
+        <v>5.43</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>473.05799999999999</v>
+        <v>405.67899999999997</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -6952,14 +6952,14 @@
       </c>
       <c r="J46">
         <f t="shared" si="1"/>
-        <v>1.6781952722060836E-4</v>
+        <v>1.4391651337326326E-4</v>
       </c>
       <c r="L46">
         <f t="shared" si="2"/>
         <v>474.97615039289377</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -6970,13 +6970,13 @@
         <v>75</v>
       </c>
       <c r="D47">
-        <v>7.0570000000000004</v>
+        <v>34.768999999999998</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F47">
-        <v>468.41399999999999</v>
+        <v>422.00200000000001</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -6990,14 +6990,14 @@
       </c>
       <c r="J47">
         <f t="shared" si="1"/>
-        <v>1.6617204660636549E-4</v>
+        <v>1.4970717359425519E-4</v>
       </c>
       <c r="L47">
         <f t="shared" si="2"/>
         <v>474.97615039289377</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -7008,13 +7008,13 @@
         <v>75</v>
       </c>
       <c r="D48">
-        <v>25.981000000000002</v>
+        <v>6.0529999999999999</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>470.99099999999999</v>
+        <v>407.19499999999999</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -7028,14 +7028,14 @@
       </c>
       <c r="J48">
         <f t="shared" si="1"/>
-        <v>1.6708624935031551E-4</v>
+        <v>1.4445432142907555E-4</v>
       </c>
       <c r="L48">
         <f t="shared" si="2"/>
         <v>474.97615039289377</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -7046,13 +7046,13 @@
         <v>75</v>
       </c>
       <c r="D49">
-        <v>39.304000000000002</v>
+        <v>5.9539999999999997</v>
       </c>
       <c r="E49">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>470.78</v>
+        <v>397.48399999999998</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -7066,14 +7066,14 @@
       </c>
       <c r="J49">
         <f t="shared" si="1"/>
-        <v>1.6701139611827301E-4</v>
+        <v>1.4100929898185061E-4</v>
       </c>
       <c r="L49">
         <f t="shared" si="2"/>
         <v>474.97615039289377</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -7084,13 +7084,13 @@
         <v>78</v>
       </c>
       <c r="D50">
-        <v>8.02</v>
+        <v>7.399</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>617.48599999999999</v>
+        <v>527.18200000000002</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -7104,14 +7104,14 @@
       </c>
       <c r="J50">
         <f t="shared" si="1"/>
-        <v>1.6326232502935836E-4</v>
+        <v>1.3938608977956941E-4</v>
       </c>
       <c r="L50">
         <f t="shared" si="2"/>
         <v>637.29578138305965</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -7122,13 +7122,13 @@
         <v>78</v>
       </c>
       <c r="D51">
-        <v>8.2720000000000002</v>
+        <v>22.209</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51">
-        <v>616.27200000000005</v>
+        <v>555.76199999999994</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -7142,14 +7142,14 @@
       </c>
       <c r="J51">
         <f t="shared" si="1"/>
-        <v>1.6294134534304057E-4</v>
+        <v>1.4694259672764443E-4</v>
       </c>
       <c r="L51">
         <f t="shared" si="2"/>
         <v>637.29578138305965</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -7160,13 +7160,13 @@
         <v>78</v>
       </c>
       <c r="D52">
-        <v>24.666</v>
+        <v>7.4059999999999997</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>622.71500000000003</v>
+        <v>532.95000000000005</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -7180,14 +7180,14 @@
       </c>
       <c r="J52">
         <f t="shared" si="1"/>
-        <v>1.6464486438665313E-4</v>
+        <v>1.4091113988721452E-4</v>
       </c>
       <c r="L52">
         <f t="shared" si="2"/>
         <v>637.29578138305965</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -7198,13 +7198,13 @@
         <v>78</v>
       </c>
       <c r="D53">
-        <v>18.440000000000001</v>
+        <v>60.837000000000003</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F53">
-        <v>619.11500000000001</v>
+        <v>525.23900000000003</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -7218,14 +7218,14 @@
       </c>
       <c r="J53">
         <f t="shared" si="1"/>
-        <v>1.6369303006149322E-4</v>
+        <v>1.3887236364240672E-4</v>
       </c>
       <c r="L53">
         <f t="shared" si="2"/>
         <v>637.29578138305965</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -7236,13 +7236,13 @@
         <v>80</v>
       </c>
       <c r="D54">
-        <v>14.093999999999999</v>
+        <v>8.4410000000000007</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54">
-        <v>783.029</v>
+        <v>662.89300000000003</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -7256,14 +7256,14 @@
       </c>
       <c r="J54">
         <f t="shared" si="1"/>
-        <v>1.5931022985561985E-4</v>
+        <v>1.348681034797963E-4</v>
       </c>
       <c r="L54">
         <f t="shared" si="2"/>
         <v>828.19782897542325</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -7274,13 +7274,13 @@
         <v>80</v>
       </c>
       <c r="D55">
-        <v>70.581999999999994</v>
+        <v>17.969000000000001</v>
       </c>
       <c r="E55">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F55">
-        <v>786.35599999999999</v>
+        <v>671.38099999999997</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -7294,14 +7294,14 @@
       </c>
       <c r="J55">
         <f t="shared" si="1"/>
-        <v>1.5998712066647057E-4</v>
+        <v>1.3659501938075843E-4</v>
       </c>
       <c r="L55">
         <f t="shared" si="2"/>
         <v>828.19782897542325</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -7312,13 +7312,13 @@
         <v>80</v>
       </c>
       <c r="D56">
-        <v>9.7759999999999998</v>
+        <v>9.1539999999999999</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>779.29200000000003</v>
+        <v>658.52099999999996</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -7332,14 +7332,14 @@
       </c>
       <c r="J56">
         <f t="shared" si="1"/>
-        <v>1.5854992298451999E-4</v>
+        <v>1.3397860344221304E-4</v>
       </c>
       <c r="L56">
         <f t="shared" si="2"/>
         <v>828.19782897542325</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>45</v>
       </c>
@@ -7350,13 +7350,13 @@
         <v>80</v>
       </c>
       <c r="D57">
-        <v>20.98</v>
+        <v>25.518999999999998</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57">
-        <v>783.67700000000002</v>
+        <v>663.66700000000003</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="J57">
         <f t="shared" si="1"/>
-        <v>1.5944206792157454E-4</v>
+        <v>1.3502557672524218E-4</v>
       </c>
       <c r="L57">
         <f t="shared" si="2"/>

--- a/third assignment/karger.xlsx
+++ b/third assignment/karger.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davide/Sviluppo/Advanced Algorithm/third assignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Advanced Algorithm\AdvancedAlgorithms-assignments\third assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BC78EB-294B-D940-AD26-911E9FD8232A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06B9501-DA6A-443D-8726-C698C9B7A001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3660" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="karger" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>file</t>
   </si>
@@ -253,7 +253,16 @@
     <t>Discovery Time (s)</t>
   </si>
   <si>
-    <t>Rapporto Time/Discovert Time</t>
+    <t>Total repetition</t>
+  </si>
+  <si>
+    <t>Media DI</t>
+  </si>
+  <si>
+    <t>Rapporto Discovery Time/Time</t>
+  </si>
+  <si>
+    <t>Rapporto DI/Iterations</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1034,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E271-4119-AF6E-6202054750FD}"/>
+              <c16:uniqueId val="{00000003-C3D1-497A-9890-A30E676399A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1033,7 +1042,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>0.0001685*n^2*log^3(n)</c:v>
+            <c:v>0.000143*n^2*log^3(n)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1117,46 +1126,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.685E-2</c:v>
+                  <c:v>1.43E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14843004699777929</c:v>
+                  <c:v>0.12596733958861983</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.108552363592719</c:v>
+                  <c:v>0.94078924625376159</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.410425009736505</c:v>
+                  <c:v>2.8943072782927017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4328925029050668</c:v>
+                  <c:v>6.3080334000915403</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.48</c:v>
+                  <c:v>11.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.067330516605601</c:v>
+                  <c:v>33.155063880561428</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82.115801595367842</c:v>
+                  <c:v>69.68878117589081</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>145.20944445433716</c:v>
+                  <c:v>123.23412793454135</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>230.50704957615113</c:v>
+                  <c:v>195.62319340884042</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>339.87730238292903</c:v>
+                  <c:v>288.44186493031958</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>474.97615039289377</c:v>
+                  <c:v>403.09548668358343</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>637.29578138305965</c:v>
+                  <c:v>540.85042574348688</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>828.19782897542325</c:v>
+                  <c:v>702.86225248359358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1164,7 +1173,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E271-4119-AF6E-6202054750FD}"/>
+              <c16:uniqueId val="{00000004-C3D1-497A-9890-A30E676399A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1526,11 +1535,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>EXEUCTION TIME/DISCOVERY</a:t>
+              <a:t>COMPARISON</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> TIME</a:t>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>DISCOVERY</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> TIME AND EXECUTION TIME</a:t>
             </a:r>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
@@ -2207,11 +2224,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>EXEUCTION TIME/DISCOVERY</a:t>
+              <a:t>RATIO DISCOVERY</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> TIME</a:t>
+              <a:t> TIME/EXECUTION TIME</a:t>
             </a:r>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
@@ -2388,6 +2405,1234 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C192-40A6-B170-93546DA230A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1204925728"/>
+        <c:axId val="1204926544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1204925728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="510"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number of vertices</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1204926544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1204926544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1204925728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr u="none"/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>COMPARISON</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> DISCOVERY ITERATION AND TOTAL </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>ITERATION</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total iterations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>karger!$M$2:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>karger!$M$19:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-994E-463F-B7F6-07B17CE08AD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Discovery iterations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>karger!$M$2:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>karger!$N$19:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-994E-463F-B7F6-07B17CE08AD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1204925728"/>
+        <c:axId val="1204926544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1204925728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="510"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number of vertices</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1204926544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1204926544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="81"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1204925728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr u="none"/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>RATIO DISCOVERY</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> ITERATION/TOTAL ITERATION</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ratio Discovery Iteration/Total Iteration</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>karger!$P$2:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>karger!$O$19:$O$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.31818181818181818</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22368421052631579</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8214285714285712E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3863636363636367E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7307692307692304E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8793103448275863E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.968253968253968E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.514705882352941E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5211267605633804E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6666666666666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4871794871794872E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1874999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8589-41F8-86C7-A9C7E9F72319}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2835,6 +4080,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3868,6 +5193,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4494,6 +6851,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E3176B-7A5F-4EF7-A080-2B42B2CE3335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{872E3670-1A05-4223-9020-879D870678DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4801,26 +7234,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y27" sqref="Y27"/>
+    <sheetView tabSelected="1" topLeftCell="R18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AK43" sqref="AK43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125"/>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.875"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4876,7 +7311,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -4910,18 +7345,18 @@
         <v>7.5999999999999993E-4</v>
       </c>
       <c r="K2">
-        <v>1.685E-4</v>
+        <v>1.4300000000000001E-4</v>
       </c>
       <c r="L2">
         <f>I2*$K$2</f>
-        <v>1.685E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="M2">
         <v>10</v>
       </c>
       <c r="N2">
         <f>AVERAGEIF(H:H,M2,L:L)</f>
-        <v>1.685E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="P2">
         <v>10</v>
@@ -4939,7 +7374,7 @@
         <v>75.75</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4974,14 +7409,14 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L57" si="2">I3*$K$2</f>
-        <v>1.685E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="M3">
         <v>20</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N15" si="3">AVERAGEIF(H:H,M3,L:L)</f>
-        <v>0.14843004699777929</v>
+        <v>0.12596733958861983</v>
       </c>
       <c r="P3">
         <v>20</v>
@@ -4999,7 +7434,7 @@
         <v>423.75</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -5034,14 +7469,14 @@
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>1.685E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="M4">
         <v>40</v>
       </c>
       <c r="N4">
         <f t="shared" si="3"/>
-        <v>1.108552363592719</v>
+        <v>0.94078924625376159</v>
       </c>
       <c r="P4">
         <v>40</v>
@@ -5059,7 +7494,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -5094,14 +7529,14 @@
       </c>
       <c r="L5">
         <f t="shared" si="2"/>
-        <v>1.685E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="M5">
         <v>60</v>
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
-        <v>3.410425009736505</v>
+        <v>2.8943072782927017</v>
       </c>
       <c r="P5">
         <v>60</v>
@@ -5119,7 +7554,7 @@
         <v>5046.5</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -5154,14 +7589,14 @@
       </c>
       <c r="L6">
         <f t="shared" si="2"/>
-        <v>0.14843004699777929</v>
+        <v>0.12596733958861983</v>
       </c>
       <c r="M6">
         <v>80</v>
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
-        <v>7.4328925029050668</v>
+        <v>6.3080334000915403</v>
       </c>
       <c r="P6">
         <v>80</v>
@@ -5179,7 +7614,7 @@
         <v>9778.25</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -5214,14 +7649,14 @@
       </c>
       <c r="L7">
         <f t="shared" si="2"/>
-        <v>0.14843004699777929</v>
+        <v>0.12596733958861983</v>
       </c>
       <c r="M7">
         <v>100</v>
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
-        <v>13.48</v>
+        <v>11.440000000000001</v>
       </c>
       <c r="P7">
         <v>100</v>
@@ -5239,7 +7674,7 @@
         <v>15776.250000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5274,14 +7709,14 @@
       </c>
       <c r="L8">
         <f t="shared" si="2"/>
-        <v>0.14843004699777929</v>
+        <v>0.12596733958861983</v>
       </c>
       <c r="M8">
         <v>150</v>
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>39.067330516605601</v>
+        <v>33.155063880561428</v>
       </c>
       <c r="P8">
         <v>150</v>
@@ -5299,7 +7734,7 @@
         <v>41116.749999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -5334,14 +7769,14 @@
       </c>
       <c r="L9">
         <f t="shared" si="2"/>
-        <v>0.14843004699777929</v>
+        <v>0.12596733958861983</v>
       </c>
       <c r="M9">
         <v>200</v>
       </c>
       <c r="N9">
         <f t="shared" si="3"/>
-        <v>82.115801595367842</v>
+        <v>69.68878117589081</v>
       </c>
       <c r="P9">
         <v>200</v>
@@ -5360,7 +7795,7 @@
       </c>
       <c r="AR9" s="2"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -5395,14 +7830,14 @@
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
-        <v>1.108552363592719</v>
+        <v>0.94078924625376159</v>
       </c>
       <c r="M10">
         <v>250</v>
       </c>
       <c r="N10">
         <f t="shared" si="3"/>
-        <v>145.20944445433716</v>
+        <v>123.23412793454135</v>
       </c>
       <c r="P10">
         <v>250</v>
@@ -5421,7 +7856,7 @@
       </c>
       <c r="AQ10" s="1"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -5456,14 +7891,14 @@
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
-        <v>1.108552363592719</v>
+        <v>0.94078924625376159</v>
       </c>
       <c r="M11">
         <v>300</v>
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
-        <v>230.50704957615113</v>
+        <v>195.62319340884042</v>
       </c>
       <c r="P11">
         <v>300</v>
@@ -5481,7 +7916,7 @@
         <v>226027.59999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -5516,14 +7951,14 @@
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
-        <v>1.108552363592719</v>
+        <v>0.94078924625376159</v>
       </c>
       <c r="M12">
         <v>350</v>
       </c>
       <c r="N12">
         <f t="shared" si="3"/>
-        <v>339.87730238292903</v>
+        <v>288.44186493031958</v>
       </c>
       <c r="P12">
         <v>350</v>
@@ -5541,7 +7976,7 @@
         <v>298966.00000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -5576,14 +8011,14 @@
       </c>
       <c r="L13">
         <f t="shared" si="2"/>
-        <v>1.108552363592719</v>
+        <v>0.94078924625376159</v>
       </c>
       <c r="M13">
         <v>400</v>
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
-        <v>474.97615039289377</v>
+        <v>403.09548668358343</v>
       </c>
       <c r="P13">
         <v>400</v>
@@ -5601,7 +8036,7 @@
         <v>408090</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -5636,14 +8071,14 @@
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
-        <v>3.410425009736505</v>
+        <v>2.8943072782927017</v>
       </c>
       <c r="M14">
         <v>450</v>
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
-        <v>637.29578138305965</v>
+        <v>540.85042574348688</v>
       </c>
       <c r="P14">
         <v>450</v>
@@ -5661,7 +8096,7 @@
         <v>535283.25</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -5696,14 +8131,14 @@
       </c>
       <c r="L15">
         <f t="shared" si="2"/>
-        <v>3.410425009736505</v>
+        <v>2.8943072782927017</v>
       </c>
       <c r="M15">
         <v>500</v>
       </c>
       <c r="N15">
         <f t="shared" si="3"/>
-        <v>828.19782897542325</v>
+        <v>702.86225248359358</v>
       </c>
       <c r="P15">
         <v>500</v>
@@ -5722,7 +8157,7 @@
       </c>
       <c r="AJ15" s="1"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -5757,10 +8192,10 @@
       </c>
       <c r="L16">
         <f t="shared" si="2"/>
-        <v>3.410425009736505</v>
+        <v>2.8943072782927017</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -5795,13 +8230,13 @@
       </c>
       <c r="L17">
         <f t="shared" si="2"/>
-        <v>3.410425009736505</v>
+        <v>2.8943072782927017</v>
       </c>
       <c r="Q17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -5836,14 +8271,23 @@
       </c>
       <c r="L18">
         <f t="shared" si="2"/>
-        <v>7.4328925029050668</v>
+        <v>6.3080334000915403</v>
+      </c>
+      <c r="M18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O18" t="s">
+        <v>76</v>
       </c>
       <c r="Q18">
         <f>R2/S2</f>
         <v>0.38943894389438943</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -5878,14 +8322,25 @@
       </c>
       <c r="L19">
         <f t="shared" si="2"/>
-        <v>7.4328925029050668</v>
+        <v>6.3080334000915403</v>
+      </c>
+      <c r="M19">
+        <v>11</v>
+      </c>
+      <c r="N19">
+        <f>AVERAGEIF(C:C,M19,E:E)</f>
+        <v>3.5</v>
+      </c>
+      <c r="O19">
+        <f>N19/M19</f>
+        <v>0.31818181818181818</v>
       </c>
       <c r="Q19">
         <f t="shared" ref="Q19:Q31" si="7">R3/S3</f>
         <v>0.25014749262536878</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -5920,14 +8375,25 @@
       </c>
       <c r="L20">
         <f t="shared" si="2"/>
-        <v>7.4328925029050668</v>
+        <v>6.3080334000915403</v>
+      </c>
+      <c r="M20">
+        <v>19</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ref="N20:N32" si="8">AVERAGEIF(C:C,M20,E:E)</f>
+        <v>4.25</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ref="O20:O32" si="9">N20/M20</f>
+        <v>0.22368421052631579</v>
       </c>
       <c r="Q20">
         <f t="shared" si="7"/>
         <v>0.10776505724240916</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -5962,14 +8428,25 @@
       </c>
       <c r="L21">
         <f t="shared" si="2"/>
-        <v>7.4328925029050668</v>
+        <v>6.3080334000915403</v>
+      </c>
+      <c r="M21">
+        <v>28</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="8"/>
+        <v>2.75</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="9"/>
+        <v>9.8214285714285712E-2</v>
       </c>
       <c r="Q21">
         <f t="shared" si="7"/>
         <v>0.14178143267611215</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -6004,14 +8481,25 @@
       </c>
       <c r="L22">
         <f t="shared" si="2"/>
-        <v>13.48</v>
+        <v>11.440000000000001</v>
+      </c>
+      <c r="M22">
+        <v>35</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="9"/>
+        <v>0.12857142857142856</v>
       </c>
       <c r="Q22">
         <f t="shared" si="7"/>
         <v>0.17679543885664611</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -6046,14 +8534,25 @@
       </c>
       <c r="L23">
         <f t="shared" si="2"/>
-        <v>13.48</v>
+        <v>11.440000000000001</v>
+      </c>
+      <c r="M23">
+        <v>40</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="8"/>
+        <v>6.5</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="9"/>
+        <v>0.16250000000000001</v>
       </c>
       <c r="Q23">
         <f t="shared" si="7"/>
         <v>8.8740987243483088E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -6088,14 +8587,25 @@
       </c>
       <c r="L24">
         <f t="shared" si="2"/>
-        <v>13.48</v>
+        <v>11.440000000000001</v>
+      </c>
+      <c r="M24">
+        <v>44</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="8"/>
+        <v>3.25</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="9"/>
+        <v>7.3863636363636367E-2</v>
       </c>
       <c r="Q24">
         <f t="shared" si="7"/>
         <v>7.2877841755488962E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -6130,14 +8640,25 @@
       </c>
       <c r="L25">
         <f t="shared" si="2"/>
-        <v>13.48</v>
+        <v>11.440000000000001</v>
+      </c>
+      <c r="M25">
+        <v>52</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="9"/>
+        <v>6.7307692307692304E-2</v>
       </c>
       <c r="Q25">
         <f t="shared" si="7"/>
         <v>3.9612390145148724E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -6172,14 +8693,25 @@
       </c>
       <c r="L26">
         <f t="shared" si="2"/>
-        <v>39.067330516605601</v>
+        <v>33.155063880561428</v>
+      </c>
+      <c r="M26">
+        <v>58</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="8"/>
+        <v>2.25</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="9"/>
+        <v>3.8793103448275863E-2</v>
       </c>
       <c r="Q26">
         <f t="shared" si="7"/>
         <v>4.1256922605696369E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -6214,14 +8746,25 @@
       </c>
       <c r="L27">
         <f t="shared" si="2"/>
-        <v>39.067330516605601</v>
+        <v>33.155063880561428</v>
+      </c>
+      <c r="M27">
+        <v>63</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="9"/>
+        <v>3.968253968253968E-2</v>
       </c>
       <c r="Q27">
         <f t="shared" si="7"/>
         <v>5.4493345060514731E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -6256,14 +8799,25 @@
       </c>
       <c r="L28">
         <f t="shared" si="2"/>
-        <v>39.067330516605601</v>
+        <v>33.155063880561428</v>
+      </c>
+      <c r="M28">
+        <v>68</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="8"/>
+        <v>3.75</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="9"/>
+        <v>5.514705882352941E-2</v>
       </c>
       <c r="Q28">
         <f t="shared" si="7"/>
         <v>3.5648423789550202E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -6298,14 +8852,25 @@
       </c>
       <c r="L29">
         <f t="shared" si="2"/>
-        <v>39.067330516605601</v>
+        <v>33.155063880561428</v>
+      </c>
+      <c r="M29">
+        <v>71</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="9"/>
+        <v>3.5211267605633804E-2</v>
       </c>
       <c r="Q29">
         <f t="shared" si="7"/>
         <v>3.1981915753877814E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -6340,14 +8905,25 @@
       </c>
       <c r="L30">
         <f t="shared" si="2"/>
-        <v>82.115801595367842</v>
+        <v>69.68878117589081</v>
+      </c>
+      <c r="M30">
+        <v>75</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="9"/>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="Q30">
         <f t="shared" si="7"/>
         <v>4.570057067916846E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -6382,14 +8958,25 @@
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>82.115801595367842</v>
+        <v>69.68878117589081</v>
+      </c>
+      <c r="M31">
+        <v>78</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="9"/>
+        <v>4.4871794871794872E-2</v>
       </c>
       <c r="Q31">
         <f t="shared" si="7"/>
         <v>2.2994117740061784E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -6424,10 +9011,21 @@
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
-        <v>82.115801595367842</v>
+        <v>69.68878117589081</v>
+      </c>
+      <c r="M32">
+        <v>80</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="8"/>
+        <v>1.75</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="9"/>
+        <v>2.1874999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -6462,10 +9060,10 @@
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
-        <v>82.115801595367842</v>
+        <v>69.68878117589081</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -6500,10 +9098,10 @@
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>145.20944445433716</v>
+        <v>123.23412793454135</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -6538,10 +9136,10 @@
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>145.20944445433716</v>
+        <v>123.23412793454135</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -6576,10 +9174,10 @@
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>145.20944445433716</v>
+        <v>123.23412793454135</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -6614,10 +9212,10 @@
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>145.20944445433716</v>
+        <v>123.23412793454135</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -6652,10 +9250,10 @@
       </c>
       <c r="L38">
         <f t="shared" si="2"/>
-        <v>230.5070495761511</v>
+        <v>195.62319340884042</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -6690,10 +9288,10 @@
       </c>
       <c r="L39">
         <f t="shared" si="2"/>
-        <v>230.5070495761511</v>
+        <v>195.62319340884042</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -6728,10 +9326,10 @@
       </c>
       <c r="L40">
         <f t="shared" si="2"/>
-        <v>230.5070495761511</v>
+        <v>195.62319340884042</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -6766,10 +9364,10 @@
       </c>
       <c r="L41">
         <f t="shared" si="2"/>
-        <v>230.5070495761511</v>
+        <v>195.62319340884042</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -6804,10 +9402,10 @@
       </c>
       <c r="L42">
         <f t="shared" si="2"/>
-        <v>230.5070495761511</v>
+        <v>195.62319340884042</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -6842,10 +9440,10 @@
       </c>
       <c r="L43">
         <f t="shared" si="2"/>
-        <v>339.87730238292903</v>
+        <v>288.44186493031958</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -6880,10 +9478,10 @@
       </c>
       <c r="L44">
         <f t="shared" si="2"/>
-        <v>339.87730238292903</v>
+        <v>288.44186493031958</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -6918,10 +9516,10 @@
       </c>
       <c r="L45">
         <f t="shared" si="2"/>
-        <v>339.87730238292903</v>
+        <v>288.44186493031958</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -6956,10 +9554,10 @@
       </c>
       <c r="L46">
         <f t="shared" si="2"/>
-        <v>474.97615039289377</v>
+        <v>403.09548668358343</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -6994,10 +9592,10 @@
       </c>
       <c r="L47">
         <f t="shared" si="2"/>
-        <v>474.97615039289377</v>
+        <v>403.09548668358343</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -7032,10 +9630,10 @@
       </c>
       <c r="L48">
         <f t="shared" si="2"/>
-        <v>474.97615039289377</v>
+        <v>403.09548668358343</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -7070,10 +9668,10 @@
       </c>
       <c r="L49">
         <f t="shared" si="2"/>
-        <v>474.97615039289377</v>
+        <v>403.09548668358343</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -7108,10 +9706,10 @@
       </c>
       <c r="L50">
         <f t="shared" si="2"/>
-        <v>637.29578138305965</v>
+        <v>540.85042574348688</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -7146,10 +9744,10 @@
       </c>
       <c r="L51">
         <f t="shared" si="2"/>
-        <v>637.29578138305965</v>
+        <v>540.85042574348688</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -7184,10 +9782,10 @@
       </c>
       <c r="L52">
         <f t="shared" si="2"/>
-        <v>637.29578138305965</v>
+        <v>540.85042574348688</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -7222,10 +9820,10 @@
       </c>
       <c r="L53">
         <f t="shared" si="2"/>
-        <v>637.29578138305965</v>
+        <v>540.85042574348688</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -7260,10 +9858,10 @@
       </c>
       <c r="L54">
         <f t="shared" si="2"/>
-        <v>828.19782897542325</v>
+        <v>702.86225248359358</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -7298,10 +9896,10 @@
       </c>
       <c r="L55">
         <f t="shared" si="2"/>
-        <v>828.19782897542325</v>
+        <v>702.86225248359358</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -7336,10 +9934,10 @@
       </c>
       <c r="L56">
         <f t="shared" si="2"/>
-        <v>828.19782897542325</v>
+        <v>702.86225248359358</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>45</v>
       </c>
@@ -7374,7 +9972,7 @@
       </c>
       <c r="L57">
         <f t="shared" si="2"/>
-        <v>828.19782897542325</v>
+        <v>702.86225248359358</v>
       </c>
     </row>
   </sheetData>
